--- a/final_method/分析表.xlsx
+++ b/final_method/分析表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/485715acbe7bc5aa/Documents/作业/编译原理/final_method/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\user\source\repos\Compiler\final_method\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="8_{27F623CC-5FB7-49C1-A7F7-0436B7C61881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5F2A805-88CC-4495-B88A-D6B8DEFDCD2E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD7AA51-72F1-4576-BEB7-EA9FA79B30E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{85660D98-9A17-4E4E-93F8-C6FB2685D6EB}"/>
   </bookViews>
@@ -555,22 +555,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>s8 / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>r51</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>r15</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1293,12 +1277,44 @@
     <t>GOTO</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>s8</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>r51</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1338,6 +1354,19 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="SimSun"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Courier"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="Courier"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1759,15 +1788,15 @@
   <sheetPr codeName="工作表2"/>
   <dimension ref="A2:BJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="AZ9" sqref="AZ9"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="1:62" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -1808,7 +1837,7 @@
       <c r="AM2" s="5"/>
       <c r="AN2" s="6"/>
       <c r="AO2" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AP2" s="5"/>
       <c r="AQ2" s="5"/>
@@ -2762,7 +2791,7 @@
         <v>77</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>77</v>
@@ -2974,7 +3003,7 @@
         <v>67</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>67</v>
@@ -4762,7 +4791,7 @@
         <v>67</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>67</v>
@@ -4876,7 +4905,7 @@
         <v>67</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>67</v>
@@ -5330,7 +5359,7 @@
         <v>67</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>67</v>
@@ -5448,7 +5477,7 @@
         <v>67</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>67</v>
@@ -5732,7 +5761,7 @@
         <v>67</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>67</v>
@@ -6180,7 +6209,7 @@
         <v>67</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>67</v>
@@ -6385,7 +6414,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
       <c r="O54" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P54" s="1" t="s">
         <v>122</v>
@@ -6396,22 +6425,22 @@
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
       <c r="T54" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="U54" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="U54" s="1" t="s">
+      <c r="V54" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="V54" s="1" t="s">
+      <c r="W54" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="W54" s="1" t="s">
+      <c r="X54" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="X54" s="1" t="s">
+      <c r="Y54" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="Y54" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="Z54" s="1"/>
       <c r="AA54" s="1"/>
@@ -6480,7 +6509,7 @@
         <v>67</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="K55" s="1" t="s">
         <v>67</v>
@@ -7844,39 +7873,39 @@
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
       <c r="T72" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="U72" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="U72" s="1" t="s">
+      <c r="V72" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="V72" s="1" t="s">
+      <c r="W72" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="W72" s="1" t="s">
+      <c r="X72" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="X72" s="1" t="s">
+      <c r="Y72" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="Y72" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="Z72" s="1"/>
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
       <c r="AC72" s="1"/>
       <c r="AD72" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AE72" s="1"/>
       <c r="AF72" s="1"/>
       <c r="AG72" s="1"/>
       <c r="AH72" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AI72" s="1"/>
       <c r="AJ72" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AK72" s="1"/>
       <c r="AL72" s="1"/>
@@ -8012,7 +8041,7 @@
         <v>67</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="K74" s="1" t="s">
         <v>67</v>
@@ -8124,7 +8153,7 @@
         <v>67</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="K75" s="1" t="s">
         <v>67</v>
@@ -9144,7 +9173,7 @@
         <v>67</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="K86" s="1" t="s">
         <v>67</v>
@@ -9338,7 +9367,7 @@
         <v>67</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="K88" s="1" t="s">
         <v>67</v>
@@ -9582,7 +9611,7 @@
       <c r="AB90" s="1"/>
       <c r="AC90" s="1"/>
       <c r="AD90" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AE90" s="1"/>
       <c r="AF90" s="1"/>
@@ -10489,127 +10518,127 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/final_method/分析表.xlsx
+++ b/final_method/分析表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\user\source\repos\Compiler\final_method\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD7AA51-72F1-4576-BEB7-EA9FA79B30E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E25ABAC-09B9-4C2D-8AA0-3886C18B5E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{85660D98-9A17-4E4E-93F8-C6FB2685D6EB}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="201">
   <si>
     <t>acc</t>
   </si>
@@ -235,36 +235,15 @@
     <t>s10</t>
   </si>
   <si>
-    <t>s8</t>
-  </si>
-  <si>
     <t>r51</t>
   </si>
   <si>
-    <t>s9</t>
-  </si>
-  <si>
     <t>s11</t>
   </si>
   <si>
-    <t>s6</t>
-  </si>
-  <si>
-    <t>s13</t>
-  </si>
-  <si>
-    <t>s14</t>
-  </si>
-  <si>
-    <t>s15</t>
-  </si>
-  <si>
     <t>r12</t>
   </si>
   <si>
-    <t>s18</t>
-  </si>
-  <si>
     <t>r13</t>
   </si>
   <si>
@@ -292,27 +271,15 @@
     <t>r50</t>
   </si>
   <si>
-    <t>s36</t>
-  </si>
-  <si>
     <t>r55</t>
   </si>
   <si>
-    <t>s37</t>
-  </si>
-  <si>
     <t>r14</t>
   </si>
   <si>
-    <t>s39</t>
-  </si>
-  <si>
     <t>s40</t>
   </si>
   <si>
-    <t>s38</t>
-  </si>
-  <si>
     <t>r9</t>
   </si>
   <si>
@@ -325,9 +292,6 @@
     <t>s41</t>
   </si>
   <si>
-    <t>s42</t>
-  </si>
-  <si>
     <t>r49</t>
   </si>
   <si>
@@ -346,21 +310,6 @@
     <t>r41</t>
   </si>
   <si>
-    <t>s43</t>
-  </si>
-  <si>
-    <t>s50</t>
-  </si>
-  <si>
-    <t>s51</t>
-  </si>
-  <si>
-    <t>s48</t>
-  </si>
-  <si>
-    <t>s49</t>
-  </si>
-  <si>
     <t>s56</t>
   </si>
   <si>
@@ -376,18 +325,9 @@
     <t>r47</t>
   </si>
   <si>
-    <t>s68</t>
-  </si>
-  <si>
-    <t>s67</t>
-  </si>
-  <si>
     <t>s70</t>
   </si>
   <si>
-    <t>s69</t>
-  </si>
-  <si>
     <t>r19</t>
   </si>
   <si>
@@ -406,9 +346,6 @@
     <t>r25</t>
   </si>
   <si>
-    <t>s74</t>
-  </si>
-  <si>
     <t>s75</t>
   </si>
   <si>
@@ -472,9 +409,6 @@
     <t>r23</t>
   </si>
   <si>
-    <t>s89</t>
-  </si>
-  <si>
     <t>r29</t>
   </si>
   <si>
@@ -493,9 +427,6 @@
     <t>r34</t>
   </si>
   <si>
-    <t>s90</t>
-  </si>
-  <si>
     <t>r53</t>
   </si>
   <si>
@@ -527,136 +458,10 @@
   </si>
   <si>
     <t>r44</t>
-  </si>
-  <si>
-    <r>
-      <t>r36 / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>r16</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> / r25</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>r15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
       <t>r25 / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>r16</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>s74 / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>r16</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>s75 / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>r16</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>s76 / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>r16</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>s77 / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>r16</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>s78 / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
-      </rPr>
-      <t>r16</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>s79 / </t>
     </r>
     <r>
       <rPr>
@@ -1205,28 +1010,6 @@
   </si>
   <si>
     <r>
-      <t>I: &lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-      </rPr>
-      <t>变量说明</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>D: &lt;</t>
     </r>
     <r>
@@ -1279,33 +1062,192 @@
   </si>
   <si>
     <r>
+      <t>Q: &lt;</t>
+    </r>
+    <r>
       <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Courier"/>
-        <family val="3"/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
       </rPr>
-      <t>s8</t>
+      <t>变量说明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>s5</t>
+  </si>
+  <si>
+    <t>s7</t>
+  </si>
+  <si>
+    <t>s19</t>
+  </si>
+  <si>
+    <t>s20</t>
+  </si>
+  <si>
+    <t>s21</t>
+  </si>
+  <si>
+    <t>s23</t>
+  </si>
+  <si>
+    <t>s24</t>
+  </si>
+  <si>
+    <t>s25</t>
+  </si>
+  <si>
+    <t>s26</t>
+  </si>
+  <si>
+    <t>s27</t>
+  </si>
+  <si>
+    <t>s45</t>
+  </si>
+  <si>
+    <t>s46</t>
+  </si>
+  <si>
+    <t>s47</t>
+  </si>
+  <si>
+    <t>s55</t>
+  </si>
+  <si>
+    <t>s54</t>
+  </si>
+  <si>
+    <t>s61</t>
+  </si>
+  <si>
+    <t>s62</t>
+  </si>
+  <si>
+    <t>s63</t>
+  </si>
+  <si>
+    <t>s64</t>
+  </si>
+  <si>
+    <t>s65</t>
+  </si>
+  <si>
+    <t>s66</t>
+  </si>
+  <si>
+    <t>s72</t>
+  </si>
+  <si>
+    <t>s73</t>
+  </si>
+  <si>
+    <r>
+      <t>s61 / </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t> / </t>
+      <t>r16</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s62 / </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="12"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Courier"/>
         <family val="3"/>
       </rPr>
-      <t>r51</t>
+      <t>r16</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s63 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>r16</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s64 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>r16</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s65 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>r16</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s66 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier"/>
+        <family val="3"/>
+      </rPr>
+      <t>r16</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1314,7 +1256,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1354,19 +1296,6 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="SimSun"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Courier"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="9"/>
-      <name val="Courier"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1786,17 +1715,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D05F9A89-B788-4127-8202-0ECFBC80742E}">
   <sheetPr codeName="工作表2"/>
-  <dimension ref="A2:BJ100"/>
+  <dimension ref="A2:BK100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="BJ16" sqref="BJ16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:63" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -1837,7 +1766,7 @@
       <c r="AM2" s="5"/>
       <c r="AN2" s="6"/>
       <c r="AO2" s="4" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="AP2" s="5"/>
       <c r="AQ2" s="5"/>
@@ -1859,9 +1788,10 @@
       <c r="BG2" s="5"/>
       <c r="BH2" s="5"/>
       <c r="BI2" s="5"/>
-      <c r="BJ2" s="6"/>
-    </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BJ2" s="5"/>
+      <c r="BK2" s="5"/>
+    </row>
+    <row r="3" spans="1:63" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
@@ -2040,13 +1970,16 @@
         <v>59</v>
       </c>
       <c r="BI3" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ3" s="1" t="s">
+      <c r="BK3" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -2113,8 +2046,9 @@
       <c r="BH4" s="1"/>
       <c r="BI4" s="1"/>
       <c r="BJ4" s="1"/>
-    </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK4" s="1"/>
+    </row>
+    <row r="5" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -2181,8 +2115,9 @@
       <c r="BH5" s="1"/>
       <c r="BI5" s="1"/>
       <c r="BJ5" s="1"/>
-    </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK5" s="1"/>
+    </row>
+    <row r="6" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -2249,36 +2184,25 @@
       <c r="BH6" s="1"/>
       <c r="BI6" s="1"/>
       <c r="BJ6" s="1"/>
-    </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK6" s="1"/>
+    </row>
+    <row r="7" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -2300,11 +2224,11 @@
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
       <c r="AI7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AJ7" s="1"/>
       <c r="AK7" s="1" t="s">
-        <v>70</v>
+        <v>172</v>
       </c>
       <c r="AL7" s="1"/>
       <c r="AM7" s="1"/>
@@ -2313,15 +2237,9 @@
       <c r="AP7" s="1"/>
       <c r="AQ7" s="1"/>
       <c r="AR7" s="1"/>
-      <c r="AS7" s="1">
-        <v>4</v>
-      </c>
-      <c r="AT7" s="1">
-        <v>5</v>
-      </c>
-      <c r="AU7" s="1">
-        <v>7</v>
-      </c>
+      <c r="AS7" s="1"/>
+      <c r="AT7" s="1"/>
+      <c r="AU7" s="1"/>
       <c r="AV7" s="1"/>
       <c r="AW7" s="1"/>
       <c r="AX7" s="1"/>
@@ -2335,10 +2253,13 @@
       <c r="BF7" s="1"/>
       <c r="BG7" s="1"/>
       <c r="BH7" s="1"/>
-      <c r="BI7" s="1"/>
+      <c r="BI7" s="1">
+        <v>4</v>
+      </c>
       <c r="BJ7" s="1"/>
-    </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK7" s="1"/>
+    </row>
+    <row r="8" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -2351,12 +2272,8 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -2380,7 +2297,7 @@
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
       <c r="AI8" s="1" t="s">
-        <v>73</v>
+        <v>173</v>
       </c>
       <c r="AJ8" s="1"/>
       <c r="AK8" s="1"/>
@@ -2406,91 +2323,54 @@
       <c r="BE8" s="1"/>
       <c r="BF8" s="1"/>
       <c r="BG8" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="BH8" s="1"/>
       <c r="BI8" s="1"/>
       <c r="BJ8" s="1"/>
-    </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK8" s="1"/>
+    </row>
+    <row r="9" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="C9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-      <c r="O9" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
-      <c r="T9" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
-      <c r="AC9" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD9" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
-      <c r="AF9" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
-      <c r="AH9" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI9" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AJ9" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="1"/>
       <c r="AK9" s="1"/>
       <c r="AL9" s="1"/>
       <c r="AM9" s="1"/>
@@ -2516,18 +2396,23 @@
       <c r="BG9" s="1"/>
       <c r="BH9" s="1"/>
       <c r="BI9" s="1"/>
-      <c r="BJ9" s="1"/>
-    </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BJ9" s="1">
+        <v>8</v>
+      </c>
+      <c r="BK9" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>6</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>75</v>
-      </c>
+      <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -2583,92 +2468,59 @@
       <c r="BF10" s="1"/>
       <c r="BG10" s="1"/>
       <c r="BH10" s="1"/>
-      <c r="BI10" s="1">
-        <v>16</v>
-      </c>
-      <c r="BJ10" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BI10" s="1"/>
+      <c r="BJ10" s="1"/>
+      <c r="BK10" s="1"/>
+    </row>
+    <row r="11" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>7</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="C11" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
-      <c r="O11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
-      <c r="T11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="X11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y11" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE11" s="1"/>
-      <c r="AF11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG11" s="1"/>
-      <c r="AH11" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="AB11" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH11" s="1"/>
       <c r="AI11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AJ11" s="1" t="s">
-        <v>76</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="AJ11" s="1"/>
       <c r="AK11" s="1"/>
       <c r="AL11" s="1"/>
       <c r="AM11" s="1"/>
@@ -2686,41 +2538,48 @@
       <c r="AY11" s="1"/>
       <c r="AZ11" s="1"/>
       <c r="BA11" s="1"/>
-      <c r="BB11" s="1"/>
-      <c r="BC11" s="1"/>
-      <c r="BD11" s="1"/>
-      <c r="BE11" s="1"/>
-      <c r="BF11" s="1"/>
-      <c r="BG11" s="1"/>
-      <c r="BH11" s="1"/>
+      <c r="BB11" s="1">
+        <v>13</v>
+      </c>
+      <c r="BC11" s="1">
+        <v>14</v>
+      </c>
+      <c r="BD11" s="1">
+        <v>15</v>
+      </c>
+      <c r="BE11" s="1">
+        <v>16</v>
+      </c>
+      <c r="BF11" s="1">
+        <v>17</v>
+      </c>
+      <c r="BG11" s="1">
+        <v>18</v>
+      </c>
+      <c r="BH11" s="1">
+        <v>12</v>
+      </c>
       <c r="BI11" s="1"/>
       <c r="BJ11" s="1"/>
-    </row>
-    <row r="12" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK11" s="1"/>
+    </row>
+    <row r="12" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>8</v>
       </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -2741,7 +2600,9 @@
       <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
       <c r="AH12" s="1"/>
-      <c r="AI12" s="1"/>
+      <c r="AI12" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1"/>
       <c r="AL12" s="1"/>
@@ -2752,12 +2613,8 @@
       <c r="AQ12" s="1"/>
       <c r="AR12" s="1"/>
       <c r="AS12" s="1"/>
-      <c r="AT12" s="1">
-        <v>19</v>
-      </c>
-      <c r="AU12" s="1">
-        <v>7</v>
-      </c>
+      <c r="AT12" s="1"/>
+      <c r="AU12" s="1"/>
       <c r="AV12" s="1"/>
       <c r="AW12" s="1"/>
       <c r="AX12" s="1"/>
@@ -2773,88 +2630,51 @@
       <c r="BH12" s="1"/>
       <c r="BI12" s="1"/>
       <c r="BJ12" s="1"/>
-    </row>
-    <row r="13" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK12" s="1"/>
+    </row>
+    <row r="13" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>9</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
-      <c r="O13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
-      <c r="T13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="X13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y13" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
-      <c r="AC13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD13" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
-      <c r="AF13" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
-      <c r="AH13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AI13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ13" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="1"/>
       <c r="AK13" s="1"/>
-      <c r="AL13" s="1"/>
+      <c r="AL13" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="AM13" s="1"/>
       <c r="AN13" s="1"/>
       <c r="AO13" s="1"/>
@@ -2879,89 +2699,54 @@
       <c r="BH13" s="1"/>
       <c r="BI13" s="1"/>
       <c r="BJ13" s="1"/>
-    </row>
-    <row r="14" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK13" s="1"/>
+    </row>
+    <row r="14" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>10</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
-      <c r="T14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="X14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y14" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
-      <c r="AC14" s="1" t="s">
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AD14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE14" s="1"/>
-      <c r="AF14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG14" s="1"/>
-      <c r="AH14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AJ14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK14" s="1"/>
-      <c r="AL14" s="1"/>
-      <c r="AM14" s="1"/>
+      <c r="AM14" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="AN14" s="1"/>
       <c r="AO14" s="1"/>
       <c r="AP14" s="1"/>
@@ -2985,41 +2770,26 @@
       <c r="BH14" s="1"/>
       <c r="BI14" s="1"/>
       <c r="BJ14" s="1"/>
-    </row>
-    <row r="15" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK14" s="1"/>
+    </row>
+    <row r="15" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>11</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -3041,27 +2811,19 @@
       <c r="AH15" s="1"/>
       <c r="AI15" s="1"/>
       <c r="AJ15" s="1"/>
-      <c r="AK15" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="AK15" s="1"/>
       <c r="AL15" s="1"/>
       <c r="AM15" s="1"/>
-      <c r="AN15" s="1"/>
+      <c r="AN15" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="AO15" s="1"/>
       <c r="AP15" s="1"/>
       <c r="AQ15" s="1"/>
-      <c r="AR15" s="1">
-        <v>20</v>
-      </c>
-      <c r="AS15" s="1">
-        <v>21</v>
-      </c>
-      <c r="AT15" s="1">
-        <v>5</v>
-      </c>
-      <c r="AU15" s="1">
-        <v>7</v>
-      </c>
+      <c r="AR15" s="1"/>
+      <c r="AS15" s="1"/>
+      <c r="AT15" s="1"/>
+      <c r="AU15" s="1"/>
       <c r="AV15" s="1"/>
       <c r="AW15" s="1"/>
       <c r="AX15" s="1"/>
@@ -3077,17 +2839,16 @@
       <c r="BH15" s="1"/>
       <c r="BI15" s="1"/>
       <c r="BJ15" s="1"/>
-    </row>
-    <row r="16" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK15" s="1"/>
+    </row>
+    <row r="16" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>12</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -3118,7 +2879,9 @@
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
       <c r="AI16" s="1"/>
-      <c r="AJ16" s="1"/>
+      <c r="AJ16" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="AK16" s="1"/>
       <c r="AL16" s="1"/>
       <c r="AM16" s="1"/>
@@ -3145,32 +2908,27 @@
       <c r="BH16" s="1"/>
       <c r="BI16" s="1"/>
       <c r="BJ16" s="1"/>
-    </row>
-    <row r="17" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK16" s="1"/>
+    </row>
+    <row r="17" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>13</v>
       </c>
       <c r="B17" s="1"/>
-      <c r="C17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
@@ -3192,7 +2950,9 @@
       <c r="AG17" s="1"/>
       <c r="AH17" s="1"/>
       <c r="AI17" s="1"/>
-      <c r="AJ17" s="1"/>
+      <c r="AJ17" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="AK17" s="1"/>
       <c r="AL17" s="1"/>
       <c r="AM17" s="1"/>
@@ -3202,12 +2962,8 @@
       <c r="AQ17" s="1"/>
       <c r="AR17" s="1"/>
       <c r="AS17" s="1"/>
-      <c r="AT17" s="1">
-        <v>23</v>
-      </c>
-      <c r="AU17" s="1">
-        <v>7</v>
-      </c>
+      <c r="AT17" s="1"/>
+      <c r="AU17" s="1"/>
       <c r="AV17" s="1"/>
       <c r="AW17" s="1"/>
       <c r="AX17" s="1"/>
@@ -3223,32 +2979,27 @@
       <c r="BH17" s="1"/>
       <c r="BI17" s="1"/>
       <c r="BJ17" s="1"/>
-    </row>
-    <row r="18" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK17" s="1"/>
+    </row>
+    <row r="18" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>14</v>
       </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
@@ -3264,13 +3015,19 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
-      <c r="AD18" s="1"/>
+      <c r="AD18" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
       <c r="AG18" s="1"/>
-      <c r="AH18" s="1"/>
+      <c r="AH18" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="AI18" s="1"/>
-      <c r="AJ18" s="1"/>
+      <c r="AJ18" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="AK18" s="1"/>
       <c r="AL18" s="1"/>
       <c r="AM18" s="1"/>
@@ -3280,12 +3037,8 @@
       <c r="AQ18" s="1"/>
       <c r="AR18" s="1"/>
       <c r="AS18" s="1"/>
-      <c r="AT18" s="1">
-        <v>24</v>
-      </c>
-      <c r="AU18" s="1">
-        <v>7</v>
-      </c>
+      <c r="AT18" s="1"/>
+      <c r="AU18" s="1"/>
       <c r="AV18" s="1"/>
       <c r="AW18" s="1"/>
       <c r="AX18" s="1"/>
@@ -3301,16 +3054,17 @@
       <c r="BH18" s="1"/>
       <c r="BI18" s="1"/>
       <c r="BJ18" s="1"/>
-    </row>
-    <row r="19" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK18" s="1"/>
+    </row>
+    <row r="19" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>15</v>
       </c>
       <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -3334,23 +3088,21 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
-      <c r="AB19" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
-      <c r="AD19" s="1"/>
-      <c r="AE19" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="AD19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
-      <c r="AG19" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AH19" s="1"/>
-      <c r="AI19" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AJ19" s="1"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI19" s="1"/>
+      <c r="AJ19" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="AK19" s="1"/>
       <c r="AL19" s="1"/>
       <c r="AM19" s="1"/>
@@ -3368,108 +3120,63 @@
       <c r="AY19" s="1"/>
       <c r="AZ19" s="1"/>
       <c r="BA19" s="1"/>
-      <c r="BB19" s="1">
-        <v>26</v>
-      </c>
-      <c r="BC19" s="1">
-        <v>27</v>
-      </c>
-      <c r="BD19" s="1">
-        <v>28</v>
-      </c>
-      <c r="BE19" s="1">
-        <v>29</v>
-      </c>
-      <c r="BF19" s="1">
-        <v>30</v>
-      </c>
-      <c r="BG19" s="1">
-        <v>31</v>
-      </c>
-      <c r="BH19" s="1">
-        <v>25</v>
-      </c>
+      <c r="BB19" s="1"/>
+      <c r="BC19" s="1"/>
+      <c r="BD19" s="1"/>
+      <c r="BE19" s="1"/>
+      <c r="BF19" s="1"/>
+      <c r="BG19" s="1"/>
+      <c r="BH19" s="1"/>
       <c r="BI19" s="1"/>
       <c r="BJ19" s="1"/>
-    </row>
-    <row r="20" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK19" s="1"/>
+    </row>
+    <row r="20" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>16</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
-      <c r="T20" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="V20" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="W20" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="X20" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y20" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
-      <c r="AC20" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="AC20" s="1"/>
       <c r="AD20" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AE20" s="1"/>
-      <c r="AF20" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
       <c r="AH20" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI20" s="1" t="s">
-        <v>84</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="AI20" s="1"/>
       <c r="AJ20" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AK20" s="1"/>
       <c r="AL20" s="1"/>
@@ -3497,14 +3204,17 @@
       <c r="BH20" s="1"/>
       <c r="BI20" s="1"/>
       <c r="BJ20" s="1"/>
-    </row>
-    <row r="21" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK20" s="1"/>
+    </row>
+    <row r="21" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>17</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -3530,17 +3240,21 @@
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
-      <c r="AD21" s="1"/>
+      <c r="AD21" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="AE21" s="1"/>
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
-      <c r="AH21" s="1"/>
+      <c r="AH21" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="AI21" s="1"/>
-      <c r="AJ21" s="1"/>
+      <c r="AJ21" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="AK21" s="1"/>
-      <c r="AL21" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="AL21" s="1"/>
       <c r="AM21" s="1"/>
       <c r="AN21" s="1"/>
       <c r="AO21" s="1"/>
@@ -3565,14 +3279,17 @@
       <c r="BH21" s="1"/>
       <c r="BI21" s="1"/>
       <c r="BJ21" s="1"/>
-    </row>
-    <row r="22" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK21" s="1"/>
+    </row>
+    <row r="22" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>18</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -3598,20 +3315,22 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
-      <c r="AD22" s="1"/>
+      <c r="AD22" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="AE22" s="1"/>
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
-      <c r="AH22" s="1"/>
+      <c r="AH22" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="AI22" s="1"/>
-      <c r="AJ22" s="1"/>
+      <c r="AJ22" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="AK22" s="1"/>
-      <c r="AL22" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AM22" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="AL22" s="1"/>
+      <c r="AM22" s="1"/>
       <c r="AN22" s="1"/>
       <c r="AO22" s="1"/>
       <c r="AP22" s="1"/>
@@ -3635,86 +3354,49 @@
       <c r="BH22" s="1"/>
       <c r="BI22" s="1"/>
       <c r="BJ22" s="1"/>
-    </row>
-    <row r="23" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK22" s="1"/>
+    </row>
+    <row r="23" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>19</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
-      <c r="O23" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
-      <c r="T23" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="U23" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="V23" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="W23" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="X23" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y23" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
-      <c r="AA23" s="1"/>
+      <c r="AA23" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="AB23" s="1"/>
-      <c r="AC23" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD23" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
-      <c r="AF23" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="AF23" s="1"/>
       <c r="AG23" s="1"/>
-      <c r="AH23" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI23" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ23" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="AH23" s="1"/>
+      <c r="AI23" s="1"/>
+      <c r="AJ23" s="1"/>
       <c r="AK23" s="1"/>
       <c r="AL23" s="1"/>
       <c r="AM23" s="1"/>
@@ -3741,35 +3423,42 @@
       <c r="BH23" s="1"/>
       <c r="BI23" s="1"/>
       <c r="BJ23" s="1"/>
-    </row>
-    <row r="24" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK23" s="1"/>
+    </row>
+    <row r="24" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>20</v>
       </c>
       <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="I24" s="1"/>
       <c r="J24" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1" t="s">
-        <v>91</v>
-      </c>
+      <c r="M24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
+      <c r="R24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
@@ -3794,14 +3483,30 @@
       <c r="AO24" s="1"/>
       <c r="AP24" s="1"/>
       <c r="AQ24" s="1"/>
-      <c r="AR24" s="1"/>
-      <c r="AS24" s="1"/>
-      <c r="AT24" s="1"/>
-      <c r="AU24" s="1"/>
-      <c r="AV24" s="1"/>
-      <c r="AW24" s="1"/>
-      <c r="AX24" s="1"/>
-      <c r="AY24" s="1"/>
+      <c r="AR24" s="1">
+        <v>36</v>
+      </c>
+      <c r="AS24" s="1">
+        <v>37</v>
+      </c>
+      <c r="AT24" s="1">
+        <v>38</v>
+      </c>
+      <c r="AU24" s="1">
+        <v>39</v>
+      </c>
+      <c r="AV24" s="1">
+        <v>28</v>
+      </c>
+      <c r="AW24" s="1">
+        <v>29</v>
+      </c>
+      <c r="AX24" s="1">
+        <v>30</v>
+      </c>
+      <c r="AY24" s="1">
+        <v>31</v>
+      </c>
       <c r="AZ24" s="1"/>
       <c r="BA24" s="1"/>
       <c r="BB24" s="1"/>
@@ -3813,84 +3518,59 @@
       <c r="BH24" s="1"/>
       <c r="BI24" s="1"/>
       <c r="BJ24" s="1"/>
-    </row>
-    <row r="25" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK24" s="1"/>
+    </row>
+    <row r="25" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>21</v>
       </c>
       <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="C25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="I25" s="1"/>
       <c r="J25" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="U25" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="V25" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="W25" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="X25" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y25" s="1" t="s">
-        <v>92</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
-      <c r="AC25" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD25" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
-      <c r="AF25" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="AF25" s="1"/>
       <c r="AG25" s="1"/>
-      <c r="AH25" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="AH25" s="1"/>
       <c r="AI25" s="1"/>
-      <c r="AJ25" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="AJ25" s="1"/>
       <c r="AK25" s="1"/>
       <c r="AL25" s="1"/>
       <c r="AM25" s="1"/>
@@ -3898,14 +3578,30 @@
       <c r="AO25" s="1"/>
       <c r="AP25" s="1"/>
       <c r="AQ25" s="1"/>
-      <c r="AR25" s="1"/>
-      <c r="AS25" s="1"/>
-      <c r="AT25" s="1"/>
-      <c r="AU25" s="1"/>
-      <c r="AV25" s="1"/>
-      <c r="AW25" s="1"/>
-      <c r="AX25" s="1"/>
-      <c r="AY25" s="1"/>
+      <c r="AR25" s="1">
+        <v>36</v>
+      </c>
+      <c r="AS25" s="1">
+        <v>37</v>
+      </c>
+      <c r="AT25" s="1">
+        <v>38</v>
+      </c>
+      <c r="AU25" s="1">
+        <v>39</v>
+      </c>
+      <c r="AV25" s="1">
+        <v>42</v>
+      </c>
+      <c r="AW25" s="1">
+        <v>29</v>
+      </c>
+      <c r="AX25" s="1">
+        <v>30</v>
+      </c>
+      <c r="AY25" s="1">
+        <v>31</v>
+      </c>
       <c r="AZ25" s="1"/>
       <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
@@ -3917,13 +3613,16 @@
       <c r="BH25" s="1"/>
       <c r="BI25" s="1"/>
       <c r="BJ25" s="1"/>
-    </row>
-    <row r="26" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK25" s="1"/>
+    </row>
+    <row r="26" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>22</v>
       </c>
       <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -3948,21 +3647,27 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
-      <c r="AB26" s="1"/>
+      <c r="AB26" s="1" t="s">
+        <v>175</v>
+      </c>
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
-      <c r="AE26" s="1"/>
+      <c r="AE26" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="AF26" s="1"/>
-      <c r="AG26" s="1"/>
+      <c r="AG26" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="AH26" s="1"/>
-      <c r="AI26" s="1"/>
+      <c r="AI26" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="AJ26" s="1"/>
       <c r="AK26" s="1"/>
       <c r="AL26" s="1"/>
       <c r="AM26" s="1"/>
-      <c r="AN26" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="AN26" s="1"/>
       <c r="AO26" s="1"/>
       <c r="AP26" s="1"/>
       <c r="AQ26" s="1"/>
@@ -3976,101 +3681,82 @@
       <c r="AY26" s="1"/>
       <c r="AZ26" s="1"/>
       <c r="BA26" s="1"/>
-      <c r="BB26" s="1"/>
-      <c r="BC26" s="1"/>
-      <c r="BD26" s="1"/>
-      <c r="BE26" s="1"/>
-      <c r="BF26" s="1"/>
-      <c r="BG26" s="1"/>
+      <c r="BB26" s="1">
+        <v>43</v>
+      </c>
+      <c r="BC26" s="1">
+        <v>14</v>
+      </c>
+      <c r="BD26" s="1">
+        <v>15</v>
+      </c>
+      <c r="BE26" s="1">
+        <v>16</v>
+      </c>
+      <c r="BF26" s="1">
+        <v>17</v>
+      </c>
+      <c r="BG26" s="1">
+        <v>18</v>
+      </c>
       <c r="BH26" s="1"/>
       <c r="BI26" s="1"/>
       <c r="BJ26" s="1"/>
-    </row>
-    <row r="27" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK26" s="1"/>
+    </row>
+    <row r="27" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>23</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="F27" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
-      <c r="O27" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
-      <c r="T27" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="U27" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="V27" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="W27" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="X27" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y27" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
-      <c r="AC27" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD27" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
-      <c r="AF27" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="AF27" s="1"/>
       <c r="AG27" s="1"/>
-      <c r="AH27" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI27" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AJ27" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="AH27" s="1"/>
+      <c r="AI27" s="1"/>
+      <c r="AJ27" s="1"/>
       <c r="AK27" s="1"/>
       <c r="AL27" s="1"/>
       <c r="AM27" s="1"/>
       <c r="AN27" s="1"/>
       <c r="AO27" s="1"/>
-      <c r="AP27" s="1"/>
+      <c r="AP27" s="1">
+        <v>44</v>
+      </c>
       <c r="AQ27" s="1"/>
       <c r="AR27" s="1"/>
       <c r="AS27" s="1"/>
@@ -4091,86 +3777,49 @@
       <c r="BH27" s="1"/>
       <c r="BI27" s="1"/>
       <c r="BJ27" s="1"/>
-    </row>
-    <row r="28" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK27" s="1"/>
+    </row>
+    <row r="28" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>24</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="C28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
-      <c r="O28" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
-      <c r="T28" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="U28" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="V28" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="W28" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="X28" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y28" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
-      <c r="AC28" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD28" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
-      <c r="AF28" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
-      <c r="AH28" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI28" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AJ28" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="AH28" s="1"/>
+      <c r="AI28" s="1"/>
+      <c r="AJ28" s="1"/>
       <c r="AK28" s="1"/>
       <c r="AL28" s="1"/>
       <c r="AM28" s="1"/>
@@ -4197,15 +3846,22 @@
       <c r="BH28" s="1"/>
       <c r="BI28" s="1"/>
       <c r="BJ28" s="1"/>
-    </row>
-    <row r="29" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK28" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>25</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -4230,11 +3886,15 @@
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
       <c r="AC29" s="1"/>
-      <c r="AD29" s="1"/>
+      <c r="AD29" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="AE29" s="1"/>
       <c r="AF29" s="1"/>
       <c r="AG29" s="1"/>
-      <c r="AH29" s="1"/>
+      <c r="AH29" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="AI29" s="1"/>
       <c r="AJ29" s="1" t="s">
         <v>95</v>
@@ -4265,16 +3925,17 @@
       <c r="BH29" s="1"/>
       <c r="BI29" s="1"/>
       <c r="BJ29" s="1"/>
-    </row>
-    <row r="30" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK29" s="1"/>
+    </row>
+    <row r="30" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>26</v>
       </c>
       <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="C30" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -4298,17 +3959,23 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
-      <c r="AB30" s="1"/>
+      <c r="AB30" s="1" t="s">
+        <v>175</v>
+      </c>
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
-      <c r="AE30" s="1"/>
+      <c r="AE30" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="AF30" s="1"/>
-      <c r="AG30" s="1"/>
+      <c r="AG30" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="AH30" s="1"/>
-      <c r="AI30" s="1"/>
-      <c r="AJ30" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="AI30" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AJ30" s="1"/>
       <c r="AK30" s="1"/>
       <c r="AL30" s="1"/>
       <c r="AM30" s="1"/>
@@ -4326,80 +3993,121 @@
       <c r="AY30" s="1"/>
       <c r="AZ30" s="1"/>
       <c r="BA30" s="1"/>
-      <c r="BB30" s="1"/>
-      <c r="BC30" s="1"/>
-      <c r="BD30" s="1"/>
-      <c r="BE30" s="1"/>
-      <c r="BF30" s="1"/>
-      <c r="BG30" s="1"/>
-      <c r="BH30" s="1"/>
+      <c r="BB30" s="1">
+        <v>13</v>
+      </c>
+      <c r="BC30" s="1">
+        <v>14</v>
+      </c>
+      <c r="BD30" s="1">
+        <v>15</v>
+      </c>
+      <c r="BE30" s="1">
+        <v>16</v>
+      </c>
+      <c r="BF30" s="1">
+        <v>17</v>
+      </c>
+      <c r="BG30" s="1">
+        <v>18</v>
+      </c>
+      <c r="BH30" s="1">
+        <v>49</v>
+      </c>
       <c r="BI30" s="1"/>
       <c r="BJ30" s="1"/>
-    </row>
-    <row r="31" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK30" s="1"/>
+    </row>
+    <row r="31" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>27</v>
       </c>
       <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="C31" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
+      <c r="J31" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
+      <c r="M31" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
+      <c r="R31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
-      <c r="Z31" s="1"/>
+      <c r="Z31" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
       <c r="AC31" s="1"/>
-      <c r="AD31" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="AD31" s="1"/>
       <c r="AE31" s="1"/>
       <c r="AF31" s="1"/>
       <c r="AG31" s="1"/>
-      <c r="AH31" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="AH31" s="1"/>
       <c r="AI31" s="1"/>
-      <c r="AJ31" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="AJ31" s="1"/>
       <c r="AK31" s="1"/>
       <c r="AL31" s="1"/>
       <c r="AM31" s="1"/>
       <c r="AN31" s="1"/>
       <c r="AO31" s="1"/>
       <c r="AP31" s="1"/>
-      <c r="AQ31" s="1"/>
-      <c r="AR31" s="1"/>
-      <c r="AS31" s="1"/>
-      <c r="AT31" s="1"/>
-      <c r="AU31" s="1"/>
-      <c r="AV31" s="1"/>
-      <c r="AW31" s="1"/>
-      <c r="AX31" s="1"/>
-      <c r="AY31" s="1"/>
+      <c r="AQ31" s="1">
+        <v>50</v>
+      </c>
+      <c r="AR31" s="1">
+        <v>51</v>
+      </c>
+      <c r="AS31" s="1">
+        <v>37</v>
+      </c>
+      <c r="AT31" s="1">
+        <v>38</v>
+      </c>
+      <c r="AU31" s="1">
+        <v>39</v>
+      </c>
+      <c r="AV31" s="1">
+        <v>52</v>
+      </c>
+      <c r="AW31" s="1">
+        <v>29</v>
+      </c>
+      <c r="AX31" s="1">
+        <v>30</v>
+      </c>
+      <c r="AY31" s="1">
+        <v>31</v>
+      </c>
       <c r="AZ31" s="1"/>
-      <c r="BA31" s="1"/>
+      <c r="BA31" s="1">
+        <v>53</v>
+      </c>
       <c r="BB31" s="1"/>
       <c r="BC31" s="1"/>
       <c r="BD31" s="1"/>
@@ -4409,16 +4117,15 @@
       <c r="BH31" s="1"/>
       <c r="BI31" s="1"/>
       <c r="BJ31" s="1"/>
-    </row>
-    <row r="32" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK31" s="1"/>
+    </row>
+    <row r="32" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>28</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="1" t="s">
-        <v>99</v>
-      </c>
+      <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -4430,7 +4137,9 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
+      <c r="P32" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
@@ -4443,20 +4152,16 @@
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
-      <c r="AC32" s="1"/>
-      <c r="AD32" s="1" t="s">
-        <v>99</v>
-      </c>
+      <c r="AC32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
       <c r="AF32" s="1"/>
       <c r="AG32" s="1"/>
-      <c r="AH32" s="1" t="s">
-        <v>99</v>
-      </c>
+      <c r="AH32" s="1"/>
       <c r="AI32" s="1"/>
-      <c r="AJ32" s="1" t="s">
-        <v>99</v>
-      </c>
+      <c r="AJ32" s="1"/>
       <c r="AK32" s="1"/>
       <c r="AL32" s="1"/>
       <c r="AM32" s="1"/>
@@ -4483,15 +4188,16 @@
       <c r="BH32" s="1"/>
       <c r="BI32" s="1"/>
       <c r="BJ32" s="1"/>
-    </row>
-    <row r="33" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK32" s="1"/>
+    </row>
+    <row r="33" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>29</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -4503,9 +4209,15 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
+      <c r="O33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
@@ -4517,19 +4229,23 @@
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
-      <c r="AC33" s="1"/>
+      <c r="AC33" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="AD33" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="AE33" s="1"/>
-      <c r="AF33" s="1"/>
+      <c r="AF33" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="AG33" s="1"/>
       <c r="AH33" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="AI33" s="1"/>
       <c r="AJ33" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="AK33" s="1"/>
       <c r="AL33" s="1"/>
@@ -4557,15 +4273,16 @@
       <c r="BH33" s="1"/>
       <c r="BI33" s="1"/>
       <c r="BJ33" s="1"/>
-    </row>
-    <row r="34" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK33" s="1"/>
+    </row>
+    <row r="34" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>30</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -4577,9 +4294,15 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
+      <c r="O34" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
@@ -4591,19 +4314,23 @@
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
-      <c r="AC34" s="1"/>
+      <c r="AC34" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="AD34" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AE34" s="1"/>
-      <c r="AF34" s="1"/>
+      <c r="AF34" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="AG34" s="1"/>
       <c r="AH34" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AI34" s="1"/>
       <c r="AJ34" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AK34" s="1"/>
       <c r="AL34" s="1"/>
@@ -4631,15 +4358,16 @@
       <c r="BH34" s="1"/>
       <c r="BI34" s="1"/>
       <c r="BJ34" s="1"/>
-    </row>
-    <row r="35" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK34" s="1"/>
+    </row>
+    <row r="35" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>31</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -4651,9 +4379,15 @@
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
+      <c r="O35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
@@ -4665,19 +4399,23 @@
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
-      <c r="AC35" s="1"/>
+      <c r="AC35" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="AD35" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AE35" s="1"/>
-      <c r="AF35" s="1"/>
+      <c r="AF35" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="AG35" s="1"/>
       <c r="AH35" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AI35" s="1"/>
       <c r="AJ35" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AK35" s="1"/>
       <c r="AL35" s="1"/>
@@ -4705,29 +4443,42 @@
       <c r="BH35" s="1"/>
       <c r="BI35" s="1"/>
       <c r="BJ35" s="1"/>
-    </row>
-    <row r="36" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK35" s="1"/>
+    </row>
+    <row r="36" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>32</v>
       </c>
       <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
+      <c r="J36" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
+      <c r="M36" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
+      <c r="R36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
@@ -4735,9 +4486,7 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
-      <c r="AA36" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
@@ -4754,14 +4503,26 @@
       <c r="AO36" s="1"/>
       <c r="AP36" s="1"/>
       <c r="AQ36" s="1"/>
-      <c r="AR36" s="1"/>
-      <c r="AS36" s="1"/>
-      <c r="AT36" s="1"/>
-      <c r="AU36" s="1"/>
+      <c r="AR36" s="1">
+        <v>36</v>
+      </c>
+      <c r="AS36" s="1">
+        <v>37</v>
+      </c>
+      <c r="AT36" s="1">
+        <v>38</v>
+      </c>
+      <c r="AU36" s="1">
+        <v>39</v>
+      </c>
       <c r="AV36" s="1"/>
       <c r="AW36" s="1"/>
-      <c r="AX36" s="1"/>
-      <c r="AY36" s="1"/>
+      <c r="AX36" s="1">
+        <v>59</v>
+      </c>
+      <c r="AY36" s="1">
+        <v>31</v>
+      </c>
       <c r="AZ36" s="1"/>
       <c r="BA36" s="1"/>
       <c r="BB36" s="1"/>
@@ -4773,109 +4534,80 @@
       <c r="BH36" s="1"/>
       <c r="BI36" s="1"/>
       <c r="BJ36" s="1"/>
-    </row>
-    <row r="37" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK36" s="1"/>
+    </row>
+    <row r="37" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>33</v>
       </c>
       <c r="B37" s="1"/>
-      <c r="C37" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="S37" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="T37" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="U37" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="V37" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="W37" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="X37" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y37" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
-      <c r="AC37" s="1"/>
-      <c r="AD37" s="1"/>
+      <c r="AC37" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD37" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="AE37" s="1"/>
-      <c r="AF37" s="1"/>
+      <c r="AF37" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="AG37" s="1"/>
-      <c r="AH37" s="1"/>
+      <c r="AH37" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="AI37" s="1"/>
-      <c r="AJ37" s="1"/>
-      <c r="AK37" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="AJ37" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK37" s="1"/>
       <c r="AL37" s="1"/>
       <c r="AM37" s="1"/>
       <c r="AN37" s="1"/>
       <c r="AO37" s="1"/>
       <c r="AP37" s="1"/>
       <c r="AQ37" s="1"/>
-      <c r="AR37" s="1">
-        <v>52</v>
-      </c>
-      <c r="AS37" s="1">
-        <v>21</v>
-      </c>
-      <c r="AT37" s="1">
-        <v>5</v>
-      </c>
-      <c r="AU37" s="1">
-        <v>7</v>
-      </c>
-      <c r="AV37" s="1">
-        <v>44</v>
-      </c>
-      <c r="AW37" s="1">
-        <v>45</v>
-      </c>
-      <c r="AX37" s="1">
-        <v>46</v>
-      </c>
-      <c r="AY37" s="1">
-        <v>47</v>
-      </c>
+      <c r="AR37" s="1"/>
+      <c r="AS37" s="1"/>
+      <c r="AT37" s="1"/>
+      <c r="AU37" s="1"/>
+      <c r="AV37" s="1"/>
+      <c r="AW37" s="1"/>
+      <c r="AX37" s="1"/>
+      <c r="AY37" s="1"/>
       <c r="AZ37" s="1"/>
       <c r="BA37" s="1"/>
       <c r="BB37" s="1"/>
@@ -4887,110 +4619,103 @@
       <c r="BH37" s="1"/>
       <c r="BI37" s="1"/>
       <c r="BJ37" s="1"/>
-    </row>
-    <row r="38" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK37" s="1"/>
+    </row>
+    <row r="38" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>34</v>
       </c>
       <c r="B38" s="1"/>
-      <c r="C38" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>202</v>
+        <v>71</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N38" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="S38" s="1" t="s">
-        <v>107</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
       <c r="T38" s="1" t="s">
-        <v>67</v>
+        <v>195</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>67</v>
+        <v>196</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>67</v>
+        <v>197</v>
       </c>
       <c r="W38" s="1" t="s">
-        <v>67</v>
+        <v>198</v>
       </c>
       <c r="X38" s="1" t="s">
-        <v>67</v>
+        <v>199</v>
       </c>
       <c r="Y38" s="1" t="s">
-        <v>67</v>
+        <v>200</v>
       </c>
       <c r="Z38" s="1"/>
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
-      <c r="AC38" s="1"/>
-      <c r="AD38" s="1"/>
+      <c r="AC38" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD38" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="AE38" s="1"/>
-      <c r="AF38" s="1"/>
+      <c r="AF38" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="AG38" s="1"/>
-      <c r="AH38" s="1"/>
+      <c r="AH38" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="AI38" s="1"/>
-      <c r="AJ38" s="1"/>
-      <c r="AK38" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="AJ38" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK38" s="1"/>
       <c r="AL38" s="1"/>
       <c r="AM38" s="1"/>
       <c r="AN38" s="1"/>
       <c r="AO38" s="1"/>
       <c r="AP38" s="1"/>
       <c r="AQ38" s="1"/>
-      <c r="AR38" s="1">
-        <v>52</v>
-      </c>
-      <c r="AS38" s="1">
-        <v>21</v>
-      </c>
-      <c r="AT38" s="1">
-        <v>5</v>
-      </c>
-      <c r="AU38" s="1">
-        <v>7</v>
-      </c>
-      <c r="AV38" s="1">
-        <v>53</v>
-      </c>
-      <c r="AW38" s="1">
-        <v>45</v>
-      </c>
-      <c r="AX38" s="1">
-        <v>46</v>
-      </c>
-      <c r="AY38" s="1">
-        <v>47</v>
-      </c>
-      <c r="AZ38" s="1"/>
+      <c r="AR38" s="1"/>
+      <c r="AS38" s="1"/>
+      <c r="AT38" s="1"/>
+      <c r="AU38" s="1"/>
+      <c r="AV38" s="1"/>
+      <c r="AW38" s="1"/>
+      <c r="AX38" s="1"/>
+      <c r="AY38" s="1"/>
+      <c r="AZ38" s="1">
+        <v>60</v>
+      </c>
       <c r="BA38" s="1"/>
       <c r="BB38" s="1"/>
       <c r="BC38" s="1"/>
@@ -5001,14 +4726,15 @@
       <c r="BH38" s="1"/>
       <c r="BI38" s="1"/>
       <c r="BJ38" s="1"/>
-    </row>
-    <row r="39" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK38" s="1"/>
+    </row>
+    <row r="39" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>35</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -5016,16 +4742,26 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
+      <c r="J39" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
+      <c r="M39" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
+      <c r="R39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
@@ -5034,22 +4770,14 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
-      <c r="AB39" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="AB39" s="1"/>
       <c r="AC39" s="1"/>
       <c r="AD39" s="1"/>
-      <c r="AE39" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="AE39" s="1"/>
       <c r="AF39" s="1"/>
-      <c r="AG39" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="AG39" s="1"/>
       <c r="AH39" s="1"/>
-      <c r="AI39" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="AI39" s="1"/>
       <c r="AJ39" s="1"/>
       <c r="AK39" s="1"/>
       <c r="AL39" s="1"/>
@@ -5058,39 +4786,44 @@
       <c r="AO39" s="1"/>
       <c r="AP39" s="1"/>
       <c r="AQ39" s="1"/>
-      <c r="AR39" s="1"/>
-      <c r="AS39" s="1"/>
-      <c r="AT39" s="1"/>
-      <c r="AU39" s="1"/>
-      <c r="AV39" s="1"/>
-      <c r="AW39" s="1"/>
-      <c r="AX39" s="1"/>
-      <c r="AY39" s="1"/>
+      <c r="AR39" s="1">
+        <v>68</v>
+      </c>
+      <c r="AS39" s="1">
+        <v>37</v>
+      </c>
+      <c r="AT39" s="1">
+        <v>38</v>
+      </c>
+      <c r="AU39" s="1">
+        <v>39</v>
+      </c>
+      <c r="AV39" s="1">
+        <v>67</v>
+      </c>
+      <c r="AW39" s="1">
+        <v>29</v>
+      </c>
+      <c r="AX39" s="1">
+        <v>30</v>
+      </c>
+      <c r="AY39" s="1">
+        <v>31</v>
+      </c>
       <c r="AZ39" s="1"/>
       <c r="BA39" s="1"/>
-      <c r="BB39" s="1">
-        <v>54</v>
-      </c>
-      <c r="BC39" s="1">
-        <v>27</v>
-      </c>
-      <c r="BD39" s="1">
-        <v>28</v>
-      </c>
-      <c r="BE39" s="1">
-        <v>29</v>
-      </c>
-      <c r="BF39" s="1">
-        <v>30</v>
-      </c>
-      <c r="BG39" s="1">
-        <v>31</v>
-      </c>
+      <c r="BB39" s="1"/>
+      <c r="BC39" s="1"/>
+      <c r="BD39" s="1"/>
+      <c r="BE39" s="1"/>
+      <c r="BF39" s="1"/>
+      <c r="BG39" s="1"/>
       <c r="BH39" s="1"/>
       <c r="BI39" s="1"/>
       <c r="BJ39" s="1"/>
-    </row>
-    <row r="40" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK39" s="1"/>
+    </row>
+    <row r="40" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>36</v>
       </c>
@@ -5098,17 +4831,15 @@
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
@@ -5118,12 +4849,24 @@
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
-      <c r="T40" s="1"/>
-      <c r="U40" s="1"/>
-      <c r="V40" s="1"/>
-      <c r="W40" s="1"/>
-      <c r="X40" s="1"/>
-      <c r="Y40" s="1"/>
+      <c r="T40" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="U40" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="V40" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="W40" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="X40" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y40" s="1" t="s">
+        <v>192</v>
+      </c>
       <c r="Z40" s="1"/>
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
@@ -5140,9 +4883,7 @@
       <c r="AM40" s="1"/>
       <c r="AN40" s="1"/>
       <c r="AO40" s="1"/>
-      <c r="AP40" s="1">
-        <v>55</v>
-      </c>
+      <c r="AP40" s="1"/>
       <c r="AQ40" s="1"/>
       <c r="AR40" s="1"/>
       <c r="AS40" s="1"/>
@@ -5152,7 +4893,9 @@
       <c r="AW40" s="1"/>
       <c r="AX40" s="1"/>
       <c r="AY40" s="1"/>
-      <c r="AZ40" s="1"/>
+      <c r="AZ40" s="1">
+        <v>69</v>
+      </c>
       <c r="BA40" s="1"/>
       <c r="BB40" s="1"/>
       <c r="BC40" s="1"/>
@@ -5163,48 +4906,85 @@
       <c r="BH40" s="1"/>
       <c r="BI40" s="1"/>
       <c r="BJ40" s="1"/>
-    </row>
-    <row r="41" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK40" s="1"/>
+    </row>
+    <row r="41" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>37</v>
       </c>
       <c r="B41" s="1"/>
-      <c r="C41" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
+      <c r="I41" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
+      <c r="O41" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
-      <c r="T41" s="1"/>
-      <c r="U41" s="1"/>
-      <c r="V41" s="1"/>
-      <c r="W41" s="1"/>
-      <c r="X41" s="1"/>
-      <c r="Y41" s="1"/>
+      <c r="T41" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U41" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="V41" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="W41" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="X41" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y41" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="Z41" s="1"/>
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
-      <c r="AC41" s="1"/>
-      <c r="AD41" s="1"/>
+      <c r="AC41" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD41" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="AE41" s="1"/>
-      <c r="AF41" s="1"/>
+      <c r="AF41" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="AG41" s="1"/>
-      <c r="AH41" s="1"/>
+      <c r="AH41" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="AI41" s="1"/>
-      <c r="AJ41" s="1"/>
+      <c r="AJ41" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="AK41" s="1"/>
       <c r="AL41" s="1"/>
       <c r="AM41" s="1"/>
@@ -5230,88 +5010,85 @@
       <c r="BG41" s="1"/>
       <c r="BH41" s="1"/>
       <c r="BI41" s="1"/>
-      <c r="BJ41" s="1">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="42" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BJ41" s="1"/>
+      <c r="BK41" s="1"/>
+    </row>
+    <row r="42" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>38</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
       <c r="T42" s="1" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="V42" s="1" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="W42" s="1" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="X42" s="1" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="Y42" s="1" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="Z42" s="1"/>
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
       <c r="AC42" s="1" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="AD42" s="1" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="AE42" s="1"/>
       <c r="AF42" s="1" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="AG42" s="1"/>
       <c r="AH42" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AI42" s="1" t="s">
-        <v>111</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="AI42" s="1"/>
       <c r="AJ42" s="1" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="AK42" s="1"/>
       <c r="AL42" s="1"/>
@@ -5339,93 +5116,86 @@
       <c r="BH42" s="1"/>
       <c r="BI42" s="1"/>
       <c r="BJ42" s="1"/>
-    </row>
-    <row r="43" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK42" s="1"/>
+    </row>
+    <row r="43" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>39</v>
       </c>
       <c r="B43" s="1"/>
-      <c r="C43" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>202</v>
+        <v>69</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N43" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
       <c r="O43" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
       <c r="T43" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="V43" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="W43" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="X43" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Y43" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Z43" s="1"/>
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
       <c r="AC43" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AD43" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AE43" s="1"/>
       <c r="AF43" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AG43" s="1"/>
       <c r="AH43" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AI43" s="1"/>
       <c r="AJ43" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK43" s="1" t="s">
-        <v>70</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="AK43" s="1"/>
       <c r="AL43" s="1"/>
       <c r="AM43" s="1"/>
       <c r="AN43" s="1"/>
@@ -5433,15 +5203,9 @@
       <c r="AP43" s="1"/>
       <c r="AQ43" s="1"/>
       <c r="AR43" s="1"/>
-      <c r="AS43" s="1">
-        <v>60</v>
-      </c>
-      <c r="AT43" s="1">
-        <v>5</v>
-      </c>
-      <c r="AU43" s="1">
-        <v>7</v>
-      </c>
+      <c r="AS43" s="1"/>
+      <c r="AT43" s="1"/>
+      <c r="AU43" s="1"/>
       <c r="AV43" s="1"/>
       <c r="AW43" s="1"/>
       <c r="AX43" s="1"/>
@@ -5457,93 +5221,56 @@
       <c r="BH43" s="1"/>
       <c r="BI43" s="1"/>
       <c r="BJ43" s="1"/>
-    </row>
-    <row r="44" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK43" s="1"/>
+    </row>
+    <row r="44" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>40</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>67</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="I44" s="1"/>
       <c r="J44" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>67</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
       <c r="M44" s="1" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="O44" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P44" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q44" s="1" t="s">
-        <v>67</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
-      <c r="T44" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="U44" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="V44" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="W44" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="X44" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y44" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
-      <c r="AC44" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD44" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="AC44" s="1"/>
+      <c r="AD44" s="1"/>
       <c r="AE44" s="1"/>
-      <c r="AF44" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="AF44" s="1"/>
       <c r="AG44" s="1"/>
-      <c r="AH44" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="AH44" s="1"/>
       <c r="AI44" s="1"/>
-      <c r="AJ44" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK44" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="AJ44" s="1"/>
+      <c r="AK44" s="1"/>
       <c r="AL44" s="1"/>
       <c r="AM44" s="1"/>
       <c r="AN44" s="1"/>
@@ -5551,14 +5278,12 @@
       <c r="AP44" s="1"/>
       <c r="AQ44" s="1"/>
       <c r="AR44" s="1"/>
-      <c r="AS44" s="1">
-        <v>61</v>
-      </c>
+      <c r="AS44" s="1"/>
       <c r="AT44" s="1">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="AU44" s="1">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="AV44" s="1"/>
       <c r="AW44" s="1"/>
@@ -5575,55 +5300,84 @@
       <c r="BH44" s="1"/>
       <c r="BI44" s="1"/>
       <c r="BJ44" s="1"/>
-    </row>
-    <row r="45" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK44" s="1"/>
+    </row>
+    <row r="45" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>41</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>112</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
+      <c r="I45" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
+      <c r="O45" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
-      <c r="T45" s="1"/>
-      <c r="U45" s="1"/>
-      <c r="V45" s="1"/>
-      <c r="W45" s="1"/>
-      <c r="X45" s="1"/>
-      <c r="Y45" s="1"/>
+      <c r="T45" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="U45" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="V45" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="W45" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="X45" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y45" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="Z45" s="1"/>
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
-      <c r="AC45" s="1"/>
+      <c r="AC45" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="AD45" s="1" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="AE45" s="1"/>
-      <c r="AF45" s="1"/>
+      <c r="AF45" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="AG45" s="1"/>
       <c r="AH45" s="1" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="AI45" s="1"/>
       <c r="AJ45" s="1" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="AK45" s="1"/>
       <c r="AL45" s="1"/>
@@ -5651,15 +5405,14 @@
       <c r="BH45" s="1"/>
       <c r="BI45" s="1"/>
       <c r="BJ45" s="1"/>
-    </row>
-    <row r="46" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK45" s="1"/>
+    </row>
+    <row r="46" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>42</v>
       </c>
       <c r="B46" s="1"/>
-      <c r="C46" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -5672,7 +5425,9 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
+      <c r="P46" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
@@ -5684,22 +5439,16 @@
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
       <c r="AA46" s="1"/>
-      <c r="AB46" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="AB46" s="1"/>
       <c r="AC46" s="1"/>
       <c r="AD46" s="1"/>
-      <c r="AE46" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AF46" s="1"/>
-      <c r="AG46" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="AE46" s="1"/>
+      <c r="AF46" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG46" s="1"/>
       <c r="AH46" s="1"/>
-      <c r="AI46" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="AI46" s="1"/>
       <c r="AJ46" s="1"/>
       <c r="AK46" s="1"/>
       <c r="AL46" s="1"/>
@@ -5718,148 +5467,75 @@
       <c r="AY46" s="1"/>
       <c r="AZ46" s="1"/>
       <c r="BA46" s="1"/>
-      <c r="BB46" s="1">
-        <v>26</v>
-      </c>
-      <c r="BC46" s="1">
-        <v>27</v>
-      </c>
-      <c r="BD46" s="1">
-        <v>28</v>
-      </c>
-      <c r="BE46" s="1">
-        <v>29</v>
-      </c>
-      <c r="BF46" s="1">
-        <v>30</v>
-      </c>
-      <c r="BG46" s="1">
-        <v>31</v>
-      </c>
-      <c r="BH46" s="1">
-        <v>62</v>
-      </c>
+      <c r="BB46" s="1"/>
+      <c r="BC46" s="1"/>
+      <c r="BD46" s="1"/>
+      <c r="BE46" s="1"/>
+      <c r="BF46" s="1"/>
+      <c r="BG46" s="1"/>
+      <c r="BH46" s="1"/>
       <c r="BI46" s="1"/>
       <c r="BJ46" s="1"/>
-    </row>
-    <row r="47" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK46" s="1"/>
+    </row>
+    <row r="47" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>43</v>
       </c>
       <c r="B47" s="1"/>
-      <c r="C47" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N47" s="1" t="s">
-        <v>105</v>
-      </c>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
-      <c r="R47" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="S47" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="T47" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="U47" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="V47" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="W47" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="X47" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y47" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z47" s="1" t="s">
-        <v>114</v>
-      </c>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="1"/>
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
       <c r="AC47" s="1"/>
-      <c r="AD47" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="AD47" s="1"/>
       <c r="AE47" s="1"/>
       <c r="AF47" s="1"/>
       <c r="AG47" s="1"/>
       <c r="AH47" s="1" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AI47" s="1"/>
-      <c r="AJ47" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK47" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="AJ47" s="1"/>
+      <c r="AK47" s="1"/>
       <c r="AL47" s="1"/>
       <c r="AM47" s="1"/>
       <c r="AN47" s="1"/>
       <c r="AO47" s="1"/>
       <c r="AP47" s="1"/>
-      <c r="AQ47" s="1">
-        <v>63</v>
-      </c>
-      <c r="AR47" s="1">
-        <v>64</v>
-      </c>
-      <c r="AS47" s="1">
-        <v>21</v>
-      </c>
-      <c r="AT47" s="1">
-        <v>5</v>
-      </c>
-      <c r="AU47" s="1">
-        <v>7</v>
-      </c>
-      <c r="AV47" s="1">
-        <v>65</v>
-      </c>
-      <c r="AW47" s="1">
-        <v>45</v>
-      </c>
-      <c r="AX47" s="1">
-        <v>46</v>
-      </c>
-      <c r="AY47" s="1">
-        <v>47</v>
-      </c>
+      <c r="AQ47" s="1"/>
+      <c r="AR47" s="1"/>
+      <c r="AS47" s="1"/>
+      <c r="AT47" s="1"/>
+      <c r="AU47" s="1"/>
+      <c r="AV47" s="1"/>
+      <c r="AW47" s="1"/>
+      <c r="AX47" s="1"/>
+      <c r="AY47" s="1"/>
       <c r="AZ47" s="1"/>
-      <c r="BA47" s="1">
-        <v>66</v>
-      </c>
+      <c r="BA47" s="1"/>
       <c r="BB47" s="1"/>
       <c r="BC47" s="1"/>
       <c r="BD47" s="1"/>
@@ -5869,14 +5545,17 @@
       <c r="BH47" s="1"/>
       <c r="BI47" s="1"/>
       <c r="BJ47" s="1"/>
-    </row>
-    <row r="48" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK47" s="1"/>
+    </row>
+    <row r="48" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>44</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
+      <c r="D48" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -5888,9 +5567,7 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
-      <c r="P48" s="1" t="s">
-        <v>115</v>
-      </c>
+      <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
@@ -5903,9 +5580,7 @@
       <c r="Z48" s="1"/>
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
-      <c r="AC48" s="1" t="s">
-        <v>116</v>
-      </c>
+      <c r="AC48" s="1"/>
       <c r="AD48" s="1"/>
       <c r="AE48" s="1"/>
       <c r="AF48" s="1"/>
@@ -5939,15 +5614,16 @@
       <c r="BH48" s="1"/>
       <c r="BI48" s="1"/>
       <c r="BJ48" s="1"/>
-    </row>
-    <row r="49" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK48" s="1"/>
+    </row>
+    <row r="49" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>45</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -5959,15 +5635,9 @@
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
-      <c r="O49" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="P49" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q49" s="1" t="s">
-        <v>118</v>
-      </c>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
@@ -5979,24 +5649,14 @@
       <c r="Z49" s="1"/>
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
-      <c r="AC49" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD49" s="1" t="s">
-        <v>117</v>
-      </c>
+      <c r="AC49" s="1"/>
+      <c r="AD49" s="1"/>
       <c r="AE49" s="1"/>
-      <c r="AF49" s="1" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF49" s="1"/>
       <c r="AG49" s="1"/>
-      <c r="AH49" s="1" t="s">
-        <v>117</v>
-      </c>
+      <c r="AH49" s="1"/>
       <c r="AI49" s="1"/>
-      <c r="AJ49" s="1" t="s">
-        <v>117</v>
-      </c>
+      <c r="AJ49" s="1"/>
       <c r="AK49" s="1"/>
       <c r="AL49" s="1"/>
       <c r="AM49" s="1"/>
@@ -6023,15 +5683,16 @@
       <c r="BH49" s="1"/>
       <c r="BI49" s="1"/>
       <c r="BJ49" s="1"/>
-    </row>
-    <row r="50" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK49" s="1"/>
+    </row>
+    <row r="50" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>46</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -6043,15 +5704,9 @@
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
-      <c r="O50" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="P50" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q50" s="1" t="s">
-        <v>119</v>
-      </c>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
@@ -6063,24 +5718,14 @@
       <c r="Z50" s="1"/>
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
-      <c r="AC50" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD50" s="1" t="s">
-        <v>119</v>
-      </c>
+      <c r="AC50" s="1"/>
+      <c r="AD50" s="1"/>
       <c r="AE50" s="1"/>
-      <c r="AF50" s="1" t="s">
-        <v>119</v>
-      </c>
+      <c r="AF50" s="1"/>
       <c r="AG50" s="1"/>
-      <c r="AH50" s="1" t="s">
-        <v>119</v>
-      </c>
+      <c r="AH50" s="1"/>
       <c r="AI50" s="1"/>
-      <c r="AJ50" s="1" t="s">
-        <v>119</v>
-      </c>
+      <c r="AJ50" s="1"/>
       <c r="AK50" s="1"/>
       <c r="AL50" s="1"/>
       <c r="AM50" s="1"/>
@@ -6107,15 +5752,16 @@
       <c r="BH50" s="1"/>
       <c r="BI50" s="1"/>
       <c r="BJ50" s="1"/>
-    </row>
-    <row r="51" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK50" s="1"/>
+    </row>
+    <row r="51" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>47</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -6127,15 +5773,9 @@
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
-      <c r="O51" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="P51" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q51" s="1" t="s">
-        <v>120</v>
-      </c>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
@@ -6147,24 +5787,14 @@
       <c r="Z51" s="1"/>
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
-      <c r="AC51" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD51" s="1" t="s">
-        <v>120</v>
-      </c>
+      <c r="AC51" s="1"/>
+      <c r="AD51" s="1"/>
       <c r="AE51" s="1"/>
-      <c r="AF51" s="1" t="s">
-        <v>120</v>
-      </c>
+      <c r="AF51" s="1"/>
       <c r="AG51" s="1"/>
-      <c r="AH51" s="1" t="s">
-        <v>120</v>
-      </c>
+      <c r="AH51" s="1"/>
       <c r="AI51" s="1"/>
-      <c r="AJ51" s="1" t="s">
-        <v>120</v>
-      </c>
+      <c r="AJ51" s="1"/>
       <c r="AK51" s="1"/>
       <c r="AL51" s="1"/>
       <c r="AM51" s="1"/>
@@ -6191,65 +5821,36 @@
       <c r="BH51" s="1"/>
       <c r="BI51" s="1"/>
       <c r="BJ51" s="1"/>
-    </row>
-    <row r="52" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK51" s="1"/>
+    </row>
+    <row r="52" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>48</v>
       </c>
       <c r="B52" s="1"/>
-      <c r="C52" s="1" t="s">
-        <v>104</v>
-      </c>
+      <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
-      <c r="I52" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N52" s="1" t="s">
-        <v>105</v>
-      </c>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
-      <c r="R52" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="S52" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="T52" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="U52" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="V52" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="W52" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="X52" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y52" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+      <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
@@ -6261,35 +5862,23 @@
       <c r="AH52" s="1"/>
       <c r="AI52" s="1"/>
       <c r="AJ52" s="1"/>
-      <c r="AK52" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AL52" s="1"/>
+      <c r="AK52" s="1"/>
+      <c r="AL52" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="AM52" s="1"/>
       <c r="AN52" s="1"/>
       <c r="AO52" s="1"/>
       <c r="AP52" s="1"/>
       <c r="AQ52" s="1"/>
-      <c r="AR52" s="1">
-        <v>52</v>
-      </c>
-      <c r="AS52" s="1">
-        <v>21</v>
-      </c>
-      <c r="AT52" s="1">
-        <v>5</v>
-      </c>
-      <c r="AU52" s="1">
-        <v>7</v>
-      </c>
+      <c r="AR52" s="1"/>
+      <c r="AS52" s="1"/>
+      <c r="AT52" s="1"/>
+      <c r="AU52" s="1"/>
       <c r="AV52" s="1"/>
       <c r="AW52" s="1"/>
-      <c r="AX52" s="1">
-        <v>72</v>
-      </c>
-      <c r="AY52" s="1">
-        <v>47</v>
-      </c>
+      <c r="AX52" s="1"/>
+      <c r="AY52" s="1"/>
       <c r="AZ52" s="1"/>
       <c r="BA52" s="1"/>
       <c r="BB52" s="1"/>
@@ -6301,16 +5890,15 @@
       <c r="BH52" s="1"/>
       <c r="BI52" s="1"/>
       <c r="BJ52" s="1"/>
-    </row>
-    <row r="53" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK52" s="1"/>
+    </row>
+    <row r="53" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>49</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="1" t="s">
-        <v>121</v>
-      </c>
+      <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -6321,15 +5909,9 @@
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
-      <c r="O53" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="P53" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q53" s="1" t="s">
-        <v>121</v>
-      </c>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
@@ -6341,23 +5923,15 @@
       <c r="Z53" s="1"/>
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
-      <c r="AC53" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD53" s="1" t="s">
-        <v>121</v>
-      </c>
+      <c r="AC53" s="1"/>
+      <c r="AD53" s="1"/>
       <c r="AE53" s="1"/>
-      <c r="AF53" s="1" t="s">
-        <v>121</v>
-      </c>
+      <c r="AF53" s="1"/>
       <c r="AG53" s="1"/>
-      <c r="AH53" s="1" t="s">
-        <v>121</v>
-      </c>
+      <c r="AH53" s="1"/>
       <c r="AI53" s="1"/>
       <c r="AJ53" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="AK53" s="1"/>
       <c r="AL53" s="1"/>
@@ -6385,83 +5959,54 @@
       <c r="BH53" s="1"/>
       <c r="BI53" s="1"/>
       <c r="BJ53" s="1"/>
-    </row>
-    <row r="54" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK53" s="1"/>
+    </row>
+    <row r="54" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>50</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
-      <c r="I54" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
-      <c r="O54" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="P54" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q54" s="1" t="s">
-        <v>122</v>
-      </c>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
-      <c r="T54" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U54" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="V54" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="W54" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="X54" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="Y54" s="1" t="s">
-        <v>172</v>
-      </c>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+      <c r="W54" s="1"/>
+      <c r="X54" s="1"/>
+      <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
-      <c r="AC54" s="1" t="s">
-        <v>122</v>
-      </c>
+      <c r="AC54" s="1"/>
       <c r="AD54" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="AE54" s="1"/>
-      <c r="AF54" s="1" t="s">
-        <v>122</v>
-      </c>
+      <c r="AF54" s="1"/>
       <c r="AG54" s="1"/>
       <c r="AH54" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="AI54" s="1"/>
       <c r="AJ54" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="AK54" s="1"/>
       <c r="AL54" s="1"/>
@@ -6478,9 +6023,7 @@
       <c r="AW54" s="1"/>
       <c r="AX54" s="1"/>
       <c r="AY54" s="1"/>
-      <c r="AZ54" s="1">
-        <v>73</v>
-      </c>
+      <c r="AZ54" s="1"/>
       <c r="BA54" s="1"/>
       <c r="BB54" s="1"/>
       <c r="BC54" s="1"/>
@@ -6491,112 +6034,89 @@
       <c r="BH54" s="1"/>
       <c r="BI54" s="1"/>
       <c r="BJ54" s="1"/>
-    </row>
-    <row r="55" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK54" s="1"/>
+    </row>
+    <row r="55" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>51</v>
       </c>
       <c r="B55" s="1"/>
-      <c r="C55" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M55" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N55" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="O55" s="1" t="s">
-        <v>67</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
-      <c r="R55" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="S55" s="1" t="s">
-        <v>107</v>
-      </c>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
       <c r="T55" s="1" t="s">
-        <v>67</v>
+        <v>187</v>
       </c>
       <c r="U55" s="1" t="s">
-        <v>67</v>
+        <v>188</v>
       </c>
       <c r="V55" s="1" t="s">
-        <v>67</v>
+        <v>189</v>
       </c>
       <c r="W55" s="1" t="s">
-        <v>67</v>
+        <v>190</v>
       </c>
       <c r="X55" s="1" t="s">
-        <v>67</v>
+        <v>191</v>
       </c>
       <c r="Y55" s="1" t="s">
-        <v>67</v>
+        <v>192</v>
       </c>
       <c r="Z55" s="1"/>
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
       <c r="AC55" s="1"/>
-      <c r="AD55" s="1"/>
+      <c r="AD55" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="AE55" s="1"/>
       <c r="AF55" s="1"/>
       <c r="AG55" s="1"/>
-      <c r="AH55" s="1"/>
+      <c r="AH55" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="AI55" s="1"/>
-      <c r="AJ55" s="1"/>
-      <c r="AK55" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="AJ55" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK55" s="1"/>
       <c r="AL55" s="1"/>
       <c r="AM55" s="1"/>
       <c r="AN55" s="1"/>
       <c r="AO55" s="1"/>
       <c r="AP55" s="1"/>
       <c r="AQ55" s="1"/>
-      <c r="AR55" s="1">
-        <v>81</v>
-      </c>
-      <c r="AS55" s="1">
-        <v>21</v>
-      </c>
-      <c r="AT55" s="1">
-        <v>5</v>
-      </c>
-      <c r="AU55" s="1">
-        <v>7</v>
-      </c>
-      <c r="AV55" s="1">
-        <v>80</v>
-      </c>
-      <c r="AW55" s="1">
-        <v>45</v>
-      </c>
-      <c r="AX55" s="1">
-        <v>46</v>
-      </c>
-      <c r="AY55" s="1">
-        <v>47</v>
-      </c>
-      <c r="AZ55" s="1"/>
+      <c r="AR55" s="1"/>
+      <c r="AS55" s="1"/>
+      <c r="AT55" s="1"/>
+      <c r="AU55" s="1"/>
+      <c r="AV55" s="1"/>
+      <c r="AW55" s="1"/>
+      <c r="AX55" s="1"/>
+      <c r="AY55" s="1"/>
+      <c r="AZ55" s="1">
+        <v>69</v>
+      </c>
       <c r="BA55" s="1"/>
       <c r="BB55" s="1"/>
       <c r="BC55" s="1"/>
@@ -6607,62 +6127,57 @@
       <c r="BH55" s="1"/>
       <c r="BI55" s="1"/>
       <c r="BJ55" s="1"/>
-    </row>
-    <row r="56" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK55" s="1"/>
+    </row>
+    <row r="56" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>52</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
+      <c r="D56" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
-      <c r="I56" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
-      <c r="P56" s="1"/>
+      <c r="P56" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
-      <c r="T56" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="U56" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="V56" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="W56" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="X56" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y56" s="1" t="s">
-        <v>128</v>
-      </c>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
+      <c r="X56" s="1"/>
+      <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
       <c r="AC56" s="1"/>
-      <c r="AD56" s="1"/>
+      <c r="AD56" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="AE56" s="1"/>
       <c r="AF56" s="1"/>
       <c r="AG56" s="1"/>
-      <c r="AH56" s="1"/>
+      <c r="AH56" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="AI56" s="1"/>
-      <c r="AJ56" s="1"/>
+      <c r="AJ56" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="AK56" s="1"/>
       <c r="AL56" s="1"/>
       <c r="AM56" s="1"/>
@@ -6678,9 +6193,7 @@
       <c r="AW56" s="1"/>
       <c r="AX56" s="1"/>
       <c r="AY56" s="1"/>
-      <c r="AZ56" s="1">
-        <v>82</v>
-      </c>
+      <c r="AZ56" s="1"/>
       <c r="BA56" s="1"/>
       <c r="BB56" s="1"/>
       <c r="BC56" s="1"/>
@@ -6691,14 +6204,17 @@
       <c r="BH56" s="1"/>
       <c r="BI56" s="1"/>
       <c r="BJ56" s="1"/>
-    </row>
-    <row r="57" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK56" s="1"/>
+    </row>
+    <row r="57" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>53</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
+      <c r="D57" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
@@ -6710,9 +6226,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
-      <c r="P57" s="1" t="s">
-        <v>115</v>
-      </c>
+      <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
@@ -6726,15 +6240,19 @@
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
       <c r="AC57" s="1"/>
-      <c r="AD57" s="1"/>
+      <c r="AD57" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="AE57" s="1"/>
-      <c r="AF57" s="1" t="s">
-        <v>129</v>
-      </c>
+      <c r="AF57" s="1"/>
       <c r="AG57" s="1"/>
-      <c r="AH57" s="1"/>
+      <c r="AH57" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="AI57" s="1"/>
-      <c r="AJ57" s="1"/>
+      <c r="AJ57" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="AK57" s="1"/>
       <c r="AL57" s="1"/>
       <c r="AM57" s="1"/>
@@ -6761,14 +6279,17 @@
       <c r="BH57" s="1"/>
       <c r="BI57" s="1"/>
       <c r="BJ57" s="1"/>
-    </row>
-    <row r="58" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK57" s="1"/>
+    </row>
+    <row r="58" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>54</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
+      <c r="D58" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -6794,15 +6315,19 @@
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
       <c r="AC58" s="1"/>
-      <c r="AD58" s="1"/>
+      <c r="AD58" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="AE58" s="1"/>
       <c r="AF58" s="1"/>
       <c r="AG58" s="1"/>
       <c r="AH58" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="AI58" s="1"/>
-      <c r="AJ58" s="1"/>
+      <c r="AJ58" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="AK58" s="1"/>
       <c r="AL58" s="1"/>
       <c r="AM58" s="1"/>
@@ -6829,48 +6354,79 @@
       <c r="BH58" s="1"/>
       <c r="BI58" s="1"/>
       <c r="BJ58" s="1"/>
-    </row>
-    <row r="59" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK58" s="1"/>
+    </row>
+    <row r="59" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>55</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
+      <c r="I59" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
-      <c r="P59" s="1"/>
-      <c r="Q59" s="1"/>
+      <c r="P59" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
-      <c r="T59" s="1"/>
-      <c r="U59" s="1"/>
-      <c r="V59" s="1"/>
-      <c r="W59" s="1"/>
-      <c r="X59" s="1"/>
-      <c r="Y59" s="1"/>
+      <c r="T59" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="U59" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="V59" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="W59" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="X59" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y59" s="1" t="s">
+        <v>200</v>
+      </c>
       <c r="Z59" s="1"/>
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
       <c r="AC59" s="1"/>
-      <c r="AD59" s="1"/>
+      <c r="AD59" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="AE59" s="1"/>
       <c r="AF59" s="1"/>
       <c r="AG59" s="1"/>
-      <c r="AH59" s="1"/>
+      <c r="AH59" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="AI59" s="1"/>
-      <c r="AJ59" s="1"/>
+      <c r="AJ59" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="AK59" s="1"/>
       <c r="AL59" s="1"/>
       <c r="AM59" s="1"/>
@@ -6886,7 +6442,9 @@
       <c r="AW59" s="1"/>
       <c r="AX59" s="1"/>
       <c r="AY59" s="1"/>
-      <c r="AZ59" s="1"/>
+      <c r="AZ59" s="1">
+        <v>60</v>
+      </c>
       <c r="BA59" s="1"/>
       <c r="BB59" s="1"/>
       <c r="BC59" s="1"/>
@@ -6897,16 +6455,17 @@
       <c r="BH59" s="1"/>
       <c r="BI59" s="1"/>
       <c r="BJ59" s="1"/>
-    </row>
-    <row r="60" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK59" s="1"/>
+    </row>
+    <row r="60" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>56</v>
       </c>
       <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1" t="s">
-        <v>132</v>
-      </c>
+      <c r="C60" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
@@ -6930,14 +6489,22 @@
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
       <c r="AA60" s="1"/>
-      <c r="AB60" s="1"/>
+      <c r="AB60" s="1" t="s">
+        <v>175</v>
+      </c>
       <c r="AC60" s="1"/>
       <c r="AD60" s="1"/>
-      <c r="AE60" s="1"/>
+      <c r="AE60" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="AF60" s="1"/>
-      <c r="AG60" s="1"/>
+      <c r="AG60" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="AH60" s="1"/>
-      <c r="AI60" s="1"/>
+      <c r="AI60" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="AJ60" s="1"/>
       <c r="AK60" s="1"/>
       <c r="AL60" s="1"/>
@@ -6956,40 +6523,63 @@
       <c r="AY60" s="1"/>
       <c r="AZ60" s="1"/>
       <c r="BA60" s="1"/>
-      <c r="BB60" s="1"/>
-      <c r="BC60" s="1"/>
-      <c r="BD60" s="1"/>
-      <c r="BE60" s="1"/>
-      <c r="BF60" s="1"/>
-      <c r="BG60" s="1"/>
+      <c r="BB60" s="1">
+        <v>80</v>
+      </c>
+      <c r="BC60" s="1">
+        <v>14</v>
+      </c>
+      <c r="BD60" s="1">
+        <v>15</v>
+      </c>
+      <c r="BE60" s="1">
+        <v>16</v>
+      </c>
+      <c r="BF60" s="1">
+        <v>17</v>
+      </c>
+      <c r="BG60" s="1">
+        <v>18</v>
+      </c>
       <c r="BH60" s="1"/>
       <c r="BI60" s="1"/>
       <c r="BJ60" s="1"/>
-    </row>
-    <row r="61" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK60" s="1"/>
+    </row>
+    <row r="61" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>57</v>
       </c>
       <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1" t="s">
-        <v>133</v>
-      </c>
+      <c r="C61" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
+      <c r="J61" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
+      <c r="M61" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
-      <c r="R61" s="1"/>
-      <c r="S61" s="1"/>
+      <c r="R61" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S61" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="T61" s="1"/>
       <c r="U61" s="1"/>
       <c r="V61" s="1"/>
@@ -7014,14 +6604,28 @@
       <c r="AO61" s="1"/>
       <c r="AP61" s="1"/>
       <c r="AQ61" s="1"/>
-      <c r="AR61" s="1"/>
-      <c r="AS61" s="1"/>
-      <c r="AT61" s="1"/>
-      <c r="AU61" s="1"/>
+      <c r="AR61" s="1">
+        <v>36</v>
+      </c>
+      <c r="AS61" s="1">
+        <v>37</v>
+      </c>
+      <c r="AT61" s="1">
+        <v>38</v>
+      </c>
+      <c r="AU61" s="1">
+        <v>39</v>
+      </c>
       <c r="AV61" s="1"/>
-      <c r="AW61" s="1"/>
-      <c r="AX61" s="1"/>
-      <c r="AY61" s="1"/>
+      <c r="AW61" s="1">
+        <v>81</v>
+      </c>
+      <c r="AX61" s="1">
+        <v>30</v>
+      </c>
+      <c r="AY61" s="1">
+        <v>31</v>
+      </c>
       <c r="AZ61" s="1"/>
       <c r="BA61" s="1"/>
       <c r="BB61" s="1"/>
@@ -7033,31 +6637,42 @@
       <c r="BH61" s="1"/>
       <c r="BI61" s="1"/>
       <c r="BJ61" s="1"/>
-    </row>
-    <row r="62" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK61" s="1"/>
+    </row>
+    <row r="62" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>58</v>
       </c>
       <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1" t="s">
-        <v>134</v>
-      </c>
+      <c r="C62" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
+      <c r="J62" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
+      <c r="M62" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
-      <c r="R62" s="1"/>
-      <c r="S62" s="1"/>
+      <c r="R62" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S62" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="T62" s="1"/>
       <c r="U62" s="1"/>
       <c r="V62" s="1"/>
@@ -7082,14 +6697,26 @@
       <c r="AO62" s="1"/>
       <c r="AP62" s="1"/>
       <c r="AQ62" s="1"/>
-      <c r="AR62" s="1"/>
-      <c r="AS62" s="1"/>
-      <c r="AT62" s="1"/>
-      <c r="AU62" s="1"/>
+      <c r="AR62" s="1">
+        <v>36</v>
+      </c>
+      <c r="AS62" s="1">
+        <v>37</v>
+      </c>
+      <c r="AT62" s="1">
+        <v>38</v>
+      </c>
+      <c r="AU62" s="1">
+        <v>39</v>
+      </c>
       <c r="AV62" s="1"/>
       <c r="AW62" s="1"/>
-      <c r="AX62" s="1"/>
-      <c r="AY62" s="1"/>
+      <c r="AX62" s="1">
+        <v>82</v>
+      </c>
+      <c r="AY62" s="1">
+        <v>31</v>
+      </c>
       <c r="AZ62" s="1"/>
       <c r="BA62" s="1"/>
       <c r="BB62" s="1"/>
@@ -7101,14 +6728,17 @@
       <c r="BH62" s="1"/>
       <c r="BI62" s="1"/>
       <c r="BJ62" s="1"/>
-    </row>
-    <row r="63" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK62" s="1"/>
+    </row>
+    <row r="63" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>59</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
+      <c r="D63" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
@@ -7119,9 +6749,15 @@
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
-      <c r="O63" s="1"/>
-      <c r="P63" s="1"/>
-      <c r="Q63" s="1"/>
+      <c r="O63" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
@@ -7133,18 +6769,26 @@
       <c r="Z63" s="1"/>
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
-      <c r="AC63" s="1"/>
-      <c r="AD63" s="1"/>
+      <c r="AC63" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD63" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="AE63" s="1"/>
-      <c r="AF63" s="1"/>
+      <c r="AF63" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="AG63" s="1"/>
-      <c r="AH63" s="1"/>
+      <c r="AH63" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="AI63" s="1"/>
-      <c r="AJ63" s="1"/>
+      <c r="AJ63" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="AK63" s="1"/>
-      <c r="AL63" s="1" t="s">
-        <v>135</v>
-      </c>
+      <c r="AL63" s="1"/>
       <c r="AM63" s="1"/>
       <c r="AN63" s="1"/>
       <c r="AO63" s="1"/>
@@ -7169,84 +6813,49 @@
       <c r="BH63" s="1"/>
       <c r="BI63" s="1"/>
       <c r="BJ63" s="1"/>
-    </row>
-    <row r="64" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK63" s="1"/>
+    </row>
+    <row r="64" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>60</v>
       </c>
       <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1" t="s">
-        <v>136</v>
-      </c>
+      <c r="C64" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
-      <c r="I64" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L64" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
-      <c r="O64" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="P64" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q64" s="1" t="s">
-        <v>136</v>
-      </c>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
-      <c r="T64" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="U64" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="V64" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="W64" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="X64" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y64" s="1" t="s">
-        <v>136</v>
-      </c>
+      <c r="T64" s="1"/>
+      <c r="U64" s="1"/>
+      <c r="V64" s="1"/>
+      <c r="W64" s="1"/>
+      <c r="X64" s="1"/>
+      <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
-      <c r="AC64" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD64" s="1" t="s">
-        <v>136</v>
-      </c>
+      <c r="AC64" s="1"/>
+      <c r="AD64" s="1"/>
       <c r="AE64" s="1"/>
-      <c r="AF64" s="1" t="s">
-        <v>136</v>
-      </c>
+      <c r="AF64" s="1"/>
       <c r="AG64" s="1"/>
-      <c r="AH64" s="1" t="s">
-        <v>136</v>
-      </c>
+      <c r="AH64" s="1"/>
       <c r="AI64" s="1"/>
-      <c r="AJ64" s="1" t="s">
-        <v>136</v>
-      </c>
+      <c r="AJ64" s="1"/>
       <c r="AK64" s="1"/>
       <c r="AL64" s="1"/>
       <c r="AM64" s="1"/>
@@ -7273,84 +6882,55 @@
       <c r="BH64" s="1"/>
       <c r="BI64" s="1"/>
       <c r="BJ64" s="1"/>
-    </row>
-    <row r="65" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK64" s="1"/>
+    </row>
+    <row r="65" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>61</v>
       </c>
       <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1" t="s">
-        <v>137</v>
-      </c>
+      <c r="C65" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
-      <c r="I65" s="1" t="s">
-        <v>137</v>
-      </c>
+      <c r="I65" s="1"/>
       <c r="J65" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L65" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="M65" s="1"/>
-      <c r="N65" s="1"/>
-      <c r="O65" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="P65" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q65" s="1" t="s">
-        <v>137</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
-      <c r="T65" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="U65" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="V65" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="W65" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="X65" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y65" s="1" t="s">
-        <v>137</v>
-      </c>
+      <c r="T65" s="1"/>
+      <c r="U65" s="1"/>
+      <c r="V65" s="1"/>
+      <c r="W65" s="1"/>
+      <c r="X65" s="1"/>
+      <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
-      <c r="AC65" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD65" s="1" t="s">
-        <v>137</v>
-      </c>
+      <c r="AC65" s="1"/>
+      <c r="AD65" s="1"/>
       <c r="AE65" s="1"/>
-      <c r="AF65" s="1" t="s">
-        <v>137</v>
-      </c>
+      <c r="AF65" s="1"/>
       <c r="AG65" s="1"/>
-      <c r="AH65" s="1" t="s">
-        <v>137</v>
-      </c>
+      <c r="AH65" s="1"/>
       <c r="AI65" s="1"/>
-      <c r="AJ65" s="1" t="s">
-        <v>137</v>
-      </c>
+      <c r="AJ65" s="1"/>
       <c r="AK65" s="1"/>
       <c r="AL65" s="1"/>
       <c r="AM65" s="1"/>
@@ -7377,24 +6957,33 @@
       <c r="BH65" s="1"/>
       <c r="BI65" s="1"/>
       <c r="BJ65" s="1"/>
-    </row>
-    <row r="66" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK65" s="1"/>
+    </row>
+    <row r="66" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>62</v>
       </c>
       <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
+      <c r="C66" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
+      <c r="J66" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
+      <c r="M66" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
@@ -7416,9 +7005,7 @@
       <c r="AG66" s="1"/>
       <c r="AH66" s="1"/>
       <c r="AI66" s="1"/>
-      <c r="AJ66" s="1" t="s">
-        <v>138</v>
-      </c>
+      <c r="AJ66" s="1"/>
       <c r="AK66" s="1"/>
       <c r="AL66" s="1"/>
       <c r="AM66" s="1"/>
@@ -7445,26 +7032,33 @@
       <c r="BH66" s="1"/>
       <c r="BI66" s="1"/>
       <c r="BJ66" s="1"/>
-    </row>
-    <row r="67" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK66" s="1"/>
+    </row>
+    <row r="67" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>63</v>
       </c>
       <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1" t="s">
-        <v>139</v>
-      </c>
+      <c r="C67" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
+      <c r="J67" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
+      <c r="M67" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
@@ -7480,19 +7074,13 @@
       <c r="AA67" s="1"/>
       <c r="AB67" s="1"/>
       <c r="AC67" s="1"/>
-      <c r="AD67" s="1" t="s">
-        <v>139</v>
-      </c>
+      <c r="AD67" s="1"/>
       <c r="AE67" s="1"/>
       <c r="AF67" s="1"/>
       <c r="AG67" s="1"/>
-      <c r="AH67" s="1" t="s">
-        <v>139</v>
-      </c>
+      <c r="AH67" s="1"/>
       <c r="AI67" s="1"/>
-      <c r="AJ67" s="1" t="s">
-        <v>139</v>
-      </c>
+      <c r="AJ67" s="1"/>
       <c r="AK67" s="1"/>
       <c r="AL67" s="1"/>
       <c r="AM67" s="1"/>
@@ -7519,70 +7107,55 @@
       <c r="BH67" s="1"/>
       <c r="BI67" s="1"/>
       <c r="BJ67" s="1"/>
-    </row>
-    <row r="68" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK67" s="1"/>
+    </row>
+    <row r="68" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>64</v>
       </c>
       <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1" t="s">
-        <v>140</v>
-      </c>
+      <c r="C68" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
-      <c r="I68" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="I68" s="1"/>
       <c r="J68" s="1" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
+      <c r="M68" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>
-      <c r="T68" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="U68" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="V68" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="W68" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="X68" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y68" s="1" t="s">
-        <v>128</v>
-      </c>
+      <c r="T68" s="1"/>
+      <c r="U68" s="1"/>
+      <c r="V68" s="1"/>
+      <c r="W68" s="1"/>
+      <c r="X68" s="1"/>
+      <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
       <c r="AA68" s="1"/>
       <c r="AB68" s="1"/>
       <c r="AC68" s="1"/>
-      <c r="AD68" s="1" t="s">
-        <v>140</v>
-      </c>
+      <c r="AD68" s="1"/>
       <c r="AE68" s="1"/>
       <c r="AF68" s="1"/>
       <c r="AG68" s="1"/>
-      <c r="AH68" s="1" t="s">
-        <v>140</v>
-      </c>
+      <c r="AH68" s="1"/>
       <c r="AI68" s="1"/>
-      <c r="AJ68" s="1" t="s">
-        <v>140</v>
-      </c>
+      <c r="AJ68" s="1"/>
       <c r="AK68" s="1"/>
       <c r="AL68" s="1"/>
       <c r="AM68" s="1"/>
@@ -7598,9 +7171,7 @@
       <c r="AW68" s="1"/>
       <c r="AX68" s="1"/>
       <c r="AY68" s="1"/>
-      <c r="AZ68" s="1">
-        <v>82</v>
-      </c>
+      <c r="AZ68" s="1"/>
       <c r="BA68" s="1"/>
       <c r="BB68" s="1"/>
       <c r="BC68" s="1"/>
@@ -7611,30 +7182,35 @@
       <c r="BH68" s="1"/>
       <c r="BI68" s="1"/>
       <c r="BJ68" s="1"/>
-    </row>
-    <row r="69" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK68" s="1"/>
+    </row>
+    <row r="69" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>65</v>
       </c>
       <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1" t="s">
-        <v>141</v>
-      </c>
+      <c r="C69" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
+      <c r="J69" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
-      <c r="M69" s="1"/>
-      <c r="N69" s="1"/>
+      <c r="M69" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="O69" s="1"/>
-      <c r="P69" s="1" t="s">
-        <v>115</v>
-      </c>
+      <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
@@ -7648,19 +7224,13 @@
       <c r="AA69" s="1"/>
       <c r="AB69" s="1"/>
       <c r="AC69" s="1"/>
-      <c r="AD69" s="1" t="s">
-        <v>141</v>
-      </c>
+      <c r="AD69" s="1"/>
       <c r="AE69" s="1"/>
       <c r="AF69" s="1"/>
       <c r="AG69" s="1"/>
-      <c r="AH69" s="1" t="s">
-        <v>141</v>
-      </c>
+      <c r="AH69" s="1"/>
       <c r="AI69" s="1"/>
-      <c r="AJ69" s="1" t="s">
-        <v>141</v>
-      </c>
+      <c r="AJ69" s="1"/>
       <c r="AK69" s="1"/>
       <c r="AL69" s="1"/>
       <c r="AM69" s="1"/>
@@ -7687,26 +7257,33 @@
       <c r="BH69" s="1"/>
       <c r="BI69" s="1"/>
       <c r="BJ69" s="1"/>
-    </row>
-    <row r="70" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK69" s="1"/>
+    </row>
+    <row r="70" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>66</v>
       </c>
       <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1" t="s">
-        <v>142</v>
-      </c>
+      <c r="C70" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
+      <c r="J70" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
+      <c r="M70" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
@@ -7722,19 +7299,13 @@
       <c r="AA70" s="1"/>
       <c r="AB70" s="1"/>
       <c r="AC70" s="1"/>
-      <c r="AD70" s="1" t="s">
-        <v>142</v>
-      </c>
+      <c r="AD70" s="1"/>
       <c r="AE70" s="1"/>
       <c r="AF70" s="1"/>
       <c r="AG70" s="1"/>
-      <c r="AH70" s="1" t="s">
-        <v>142</v>
-      </c>
+      <c r="AH70" s="1"/>
       <c r="AI70" s="1"/>
-      <c r="AJ70" s="1" t="s">
-        <v>142</v>
-      </c>
+      <c r="AJ70" s="1"/>
       <c r="AK70" s="1"/>
       <c r="AL70" s="1"/>
       <c r="AM70" s="1"/>
@@ -7761,16 +7332,15 @@
       <c r="BH70" s="1"/>
       <c r="BI70" s="1"/>
       <c r="BJ70" s="1"/>
-    </row>
-    <row r="71" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK70" s="1"/>
+    </row>
+    <row r="71" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>67</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
-      <c r="D71" s="1" t="s">
-        <v>143</v>
-      </c>
+      <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
@@ -7781,8 +7351,12 @@
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
-      <c r="O71" s="1"/>
-      <c r="P71" s="1"/>
+      <c r="O71" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="P71" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="Q71" s="1"/>
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
@@ -7796,19 +7370,13 @@
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
       <c r="AC71" s="1"/>
-      <c r="AD71" s="1" t="s">
-        <v>143</v>
-      </c>
+      <c r="AD71" s="1"/>
       <c r="AE71" s="1"/>
       <c r="AF71" s="1"/>
       <c r="AG71" s="1"/>
-      <c r="AH71" s="1" t="s">
-        <v>143</v>
-      </c>
+      <c r="AH71" s="1"/>
       <c r="AI71" s="1"/>
-      <c r="AJ71" s="1" t="s">
-        <v>143</v>
-      </c>
+      <c r="AJ71" s="1"/>
       <c r="AK71" s="1"/>
       <c r="AL71" s="1"/>
       <c r="AM71" s="1"/>
@@ -7835,78 +7403,65 @@
       <c r="BH71" s="1"/>
       <c r="BI71" s="1"/>
       <c r="BJ71" s="1"/>
-    </row>
-    <row r="72" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK71" s="1"/>
+    </row>
+    <row r="72" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>68</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
-      <c r="D72" s="1" t="s">
-        <v>164</v>
-      </c>
+      <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K72" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L72" s="1" t="s">
-        <v>78</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
-      <c r="O72" s="1"/>
-      <c r="P72" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q72" s="1" t="s">
-        <v>122</v>
-      </c>
+      <c r="O72" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
       <c r="T72" s="1" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="U72" s="1" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="V72" s="1" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="W72" s="1" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="X72" s="1" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="Y72" s="1" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="Z72" s="1"/>
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
       <c r="AC72" s="1"/>
-      <c r="AD72" s="1" t="s">
-        <v>174</v>
-      </c>
+      <c r="AD72" s="1"/>
       <c r="AE72" s="1"/>
       <c r="AF72" s="1"/>
       <c r="AG72" s="1"/>
-      <c r="AH72" s="1" t="s">
-        <v>174</v>
-      </c>
+      <c r="AH72" s="1"/>
       <c r="AI72" s="1"/>
-      <c r="AJ72" s="1" t="s">
-        <v>174</v>
-      </c>
+      <c r="AJ72" s="1"/>
       <c r="AK72" s="1"/>
       <c r="AL72" s="1"/>
       <c r="AM72" s="1"/>
@@ -7923,7 +7478,7 @@
       <c r="AX72" s="1"/>
       <c r="AY72" s="1"/>
       <c r="AZ72" s="1">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="BA72" s="1"/>
       <c r="BB72" s="1"/>
@@ -7935,14 +7490,15 @@
       <c r="BH72" s="1"/>
       <c r="BI72" s="1"/>
       <c r="BJ72" s="1"/>
-    </row>
-    <row r="73" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK72" s="1"/>
+    </row>
+    <row r="73" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>69</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -7950,11 +7506,17 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
+      <c r="J73" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
-      <c r="N73" s="1"/>
+      <c r="M73" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
@@ -7968,22 +7530,14 @@
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
       <c r="AA73" s="1"/>
-      <c r="AB73" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="AB73" s="1"/>
       <c r="AC73" s="1"/>
       <c r="AD73" s="1"/>
-      <c r="AE73" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="AE73" s="1"/>
       <c r="AF73" s="1"/>
-      <c r="AG73" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="AG73" s="1"/>
       <c r="AH73" s="1"/>
-      <c r="AI73" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="AI73" s="1"/>
       <c r="AJ73" s="1"/>
       <c r="AK73" s="1"/>
       <c r="AL73" s="1"/>
@@ -7992,96 +7546,71 @@
       <c r="AO73" s="1"/>
       <c r="AP73" s="1"/>
       <c r="AQ73" s="1"/>
-      <c r="AR73" s="1"/>
-      <c r="AS73" s="1"/>
-      <c r="AT73" s="1"/>
-      <c r="AU73" s="1"/>
+      <c r="AR73" s="1">
+        <v>86</v>
+      </c>
+      <c r="AS73" s="1">
+        <v>37</v>
+      </c>
+      <c r="AT73" s="1">
+        <v>38</v>
+      </c>
+      <c r="AU73" s="1">
+        <v>39</v>
+      </c>
       <c r="AV73" s="1"/>
       <c r="AW73" s="1"/>
       <c r="AX73" s="1"/>
       <c r="AY73" s="1"/>
       <c r="AZ73" s="1"/>
       <c r="BA73" s="1"/>
-      <c r="BB73" s="1">
-        <v>86</v>
-      </c>
-      <c r="BC73" s="1">
-        <v>27</v>
-      </c>
-      <c r="BD73" s="1">
-        <v>28</v>
-      </c>
-      <c r="BE73" s="1">
-        <v>29</v>
-      </c>
-      <c r="BF73" s="1">
-        <v>30</v>
-      </c>
-      <c r="BG73" s="1">
-        <v>31</v>
-      </c>
+      <c r="BB73" s="1"/>
+      <c r="BC73" s="1"/>
+      <c r="BD73" s="1"/>
+      <c r="BE73" s="1"/>
+      <c r="BF73" s="1"/>
+      <c r="BG73" s="1"/>
       <c r="BH73" s="1"/>
       <c r="BI73" s="1"/>
       <c r="BJ73" s="1"/>
-    </row>
-    <row r="74" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK73" s="1"/>
+    </row>
+    <row r="74" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>70</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
-      <c r="I74" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="I74" s="1"/>
       <c r="J74" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="K74" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L74" s="1" t="s">
-        <v>67</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
       <c r="M74" s="1" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
-      <c r="R74" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="S74" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="T74" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="U74" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="V74" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="W74" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="X74" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y74" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
+      <c r="T74" s="1"/>
+      <c r="U74" s="1"/>
+      <c r="V74" s="1"/>
+      <c r="W74" s="1"/>
+      <c r="X74" s="1"/>
+      <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
@@ -8093,37 +7622,27 @@
       <c r="AH74" s="1"/>
       <c r="AI74" s="1"/>
       <c r="AJ74" s="1"/>
-      <c r="AK74" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="AK74" s="1"/>
       <c r="AL74" s="1"/>
       <c r="AM74" s="1"/>
       <c r="AN74" s="1"/>
       <c r="AO74" s="1"/>
       <c r="AP74" s="1"/>
       <c r="AQ74" s="1"/>
-      <c r="AR74" s="1">
-        <v>52</v>
-      </c>
+      <c r="AR74" s="1"/>
       <c r="AS74" s="1">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="AT74" s="1">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="AU74" s="1">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="AV74" s="1"/>
-      <c r="AW74" s="1">
-        <v>87</v>
-      </c>
-      <c r="AX74" s="1">
-        <v>46</v>
-      </c>
-      <c r="AY74" s="1">
-        <v>47</v>
-      </c>
+      <c r="AW74" s="1"/>
+      <c r="AX74" s="1"/>
+      <c r="AY74" s="1"/>
       <c r="AZ74" s="1"/>
       <c r="BA74" s="1"/>
       <c r="BB74" s="1"/>
@@ -8135,65 +7654,44 @@
       <c r="BH74" s="1"/>
       <c r="BI74" s="1"/>
       <c r="BJ74" s="1"/>
-    </row>
-    <row r="75" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK74" s="1"/>
+    </row>
+    <row r="75" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>71</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
-      <c r="I75" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="I75" s="1"/>
       <c r="J75" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="K75" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L75" s="1" t="s">
-        <v>67</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
       <c r="M75" s="1" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
-      <c r="R75" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="S75" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="T75" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="U75" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="V75" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="W75" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="X75" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y75" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="R75" s="1"/>
+      <c r="S75" s="1"/>
+      <c r="T75" s="1"/>
+      <c r="U75" s="1"/>
+      <c r="V75" s="1"/>
+      <c r="W75" s="1"/>
+      <c r="X75" s="1"/>
+      <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
@@ -8205,35 +7703,27 @@
       <c r="AH75" s="1"/>
       <c r="AI75" s="1"/>
       <c r="AJ75" s="1"/>
-      <c r="AK75" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="AK75" s="1"/>
       <c r="AL75" s="1"/>
       <c r="AM75" s="1"/>
       <c r="AN75" s="1"/>
       <c r="AO75" s="1"/>
       <c r="AP75" s="1"/>
       <c r="AQ75" s="1"/>
-      <c r="AR75" s="1">
-        <v>52</v>
-      </c>
+      <c r="AR75" s="1"/>
       <c r="AS75" s="1">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="AT75" s="1">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="AU75" s="1">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="AV75" s="1"/>
       <c r="AW75" s="1"/>
-      <c r="AX75" s="1">
-        <v>88</v>
-      </c>
-      <c r="AY75" s="1">
-        <v>47</v>
-      </c>
+      <c r="AX75" s="1"/>
+      <c r="AY75" s="1"/>
       <c r="AZ75" s="1"/>
       <c r="BA75" s="1"/>
       <c r="BB75" s="1"/>
@@ -8245,35 +7735,36 @@
       <c r="BH75" s="1"/>
       <c r="BI75" s="1"/>
       <c r="BJ75" s="1"/>
-    </row>
-    <row r="76" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK75" s="1"/>
+    </row>
+    <row r="76" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>72</v>
       </c>
       <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="C76" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
+      <c r="J76" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
-      <c r="M76" s="1"/>
-      <c r="N76" s="1"/>
-      <c r="O76" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="P76" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q76" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="M76" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
@@ -8285,24 +7776,14 @@
       <c r="Z76" s="1"/>
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
-      <c r="AC76" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD76" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="AC76" s="1"/>
+      <c r="AD76" s="1"/>
       <c r="AE76" s="1"/>
-      <c r="AF76" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="AF76" s="1"/>
       <c r="AG76" s="1"/>
-      <c r="AH76" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="AH76" s="1"/>
       <c r="AI76" s="1"/>
-      <c r="AJ76" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="AJ76" s="1"/>
       <c r="AK76" s="1"/>
       <c r="AL76" s="1"/>
       <c r="AM76" s="1"/>
@@ -8312,8 +7793,12 @@
       <c r="AQ76" s="1"/>
       <c r="AR76" s="1"/>
       <c r="AS76" s="1"/>
-      <c r="AT76" s="1"/>
-      <c r="AU76" s="1"/>
+      <c r="AT76" s="1">
+        <v>89</v>
+      </c>
+      <c r="AU76" s="1">
+        <v>39</v>
+      </c>
       <c r="AV76" s="1"/>
       <c r="AW76" s="1"/>
       <c r="AX76" s="1"/>
@@ -8329,14 +7814,15 @@
       <c r="BH76" s="1"/>
       <c r="BI76" s="1"/>
       <c r="BJ76" s="1"/>
-    </row>
-    <row r="77" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK76" s="1"/>
+    </row>
+    <row r="77" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>73</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1" t="s">
-        <v>145</v>
+        <v>103</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -8344,11 +7830,17 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
+      <c r="J77" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
-      <c r="N77" s="1"/>
+      <c r="M77" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
@@ -8380,8 +7872,12 @@
       <c r="AQ77" s="1"/>
       <c r="AR77" s="1"/>
       <c r="AS77" s="1"/>
-      <c r="AT77" s="1"/>
-      <c r="AU77" s="1"/>
+      <c r="AT77" s="1">
+        <v>90</v>
+      </c>
+      <c r="AU77" s="1">
+        <v>39</v>
+      </c>
       <c r="AV77" s="1"/>
       <c r="AW77" s="1"/>
       <c r="AX77" s="1"/>
@@ -8397,81 +7893,86 @@
       <c r="BH77" s="1"/>
       <c r="BI77" s="1"/>
       <c r="BJ77" s="1"/>
-    </row>
-    <row r="78" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK77" s="1"/>
+    </row>
+    <row r="78" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>74</v>
       </c>
       <c r="B78" s="1"/>
-      <c r="C78" s="1" t="s">
-        <v>146</v>
-      </c>
+      <c r="C78" s="1"/>
       <c r="D78" s="1" t="s">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1" t="s">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="M78" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="N78" s="1" t="s">
-        <v>146</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
       <c r="O78" s="1" t="s">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="P78" s="1" t="s">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="Q78" s="1" t="s">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="R78" s="1"/>
       <c r="S78" s="1"/>
-      <c r="T78" s="1"/>
-      <c r="U78" s="1"/>
-      <c r="V78" s="1"/>
-      <c r="W78" s="1"/>
-      <c r="X78" s="1"/>
-      <c r="Y78" s="1"/>
+      <c r="T78" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="U78" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="V78" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="W78" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="X78" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y78" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="Z78" s="1"/>
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
       <c r="AC78" s="1" t="s">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="AD78" s="1" t="s">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="AE78" s="1"/>
       <c r="AF78" s="1" t="s">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="AG78" s="1"/>
       <c r="AH78" s="1" t="s">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="AI78" s="1"/>
       <c r="AJ78" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AK78" s="1" t="s">
-        <v>146</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="AK78" s="1"/>
       <c r="AL78" s="1"/>
       <c r="AM78" s="1"/>
       <c r="AN78" s="1"/>
@@ -8497,81 +7998,86 @@
       <c r="BH78" s="1"/>
       <c r="BI78" s="1"/>
       <c r="BJ78" s="1"/>
-    </row>
-    <row r="79" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK78" s="1"/>
+    </row>
+    <row r="79" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>75</v>
       </c>
       <c r="B79" s="1"/>
-      <c r="C79" s="1" t="s">
-        <v>147</v>
-      </c>
+      <c r="C79" s="1"/>
       <c r="D79" s="1" t="s">
-        <v>147</v>
+        <v>71</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1" t="s">
-        <v>147</v>
+        <v>71</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>147</v>
+        <v>71</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>147</v>
+        <v>71</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="M79" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="N79" s="1" t="s">
-        <v>147</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
       <c r="O79" s="1" t="s">
-        <v>147</v>
+        <v>71</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>147</v>
+        <v>71</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>147</v>
+        <v>71</v>
       </c>
       <c r="R79" s="1"/>
       <c r="S79" s="1"/>
-      <c r="T79" s="1"/>
-      <c r="U79" s="1"/>
-      <c r="V79" s="1"/>
-      <c r="W79" s="1"/>
-      <c r="X79" s="1"/>
-      <c r="Y79" s="1"/>
+      <c r="T79" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U79" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="V79" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="W79" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="X79" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y79" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="Z79" s="1"/>
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
       <c r="AC79" s="1" t="s">
-        <v>147</v>
+        <v>71</v>
       </c>
       <c r="AD79" s="1" t="s">
-        <v>147</v>
+        <v>71</v>
       </c>
       <c r="AE79" s="1"/>
       <c r="AF79" s="1" t="s">
-        <v>147</v>
+        <v>71</v>
       </c>
       <c r="AG79" s="1"/>
       <c r="AH79" s="1" t="s">
-        <v>147</v>
+        <v>71</v>
       </c>
       <c r="AI79" s="1"/>
       <c r="AJ79" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AK79" s="1" t="s">
-        <v>147</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="AK79" s="1"/>
       <c r="AL79" s="1"/>
       <c r="AM79" s="1"/>
       <c r="AN79" s="1"/>
@@ -8597,49 +8103,36 @@
       <c r="BH79" s="1"/>
       <c r="BI79" s="1"/>
       <c r="BJ79" s="1"/>
-    </row>
-    <row r="80" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK79" s="1"/>
+    </row>
+    <row r="80" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>76</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>148</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
-      <c r="I80" s="1" t="s">
-        <v>148</v>
-      </c>
+      <c r="I80" s="1"/>
       <c r="J80" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="K80" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="L80" s="1" t="s">
-        <v>148</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
       <c r="M80" s="1" t="s">
-        <v>148</v>
+        <v>84</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="O80" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="P80" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q80" s="1" t="s">
-        <v>148</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1"/>
       <c r="R80" s="1"/>
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
@@ -8651,37 +8144,33 @@
       <c r="Z80" s="1"/>
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
-      <c r="AC80" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AD80" s="1" t="s">
-        <v>148</v>
-      </c>
+      <c r="AC80" s="1"/>
+      <c r="AD80" s="1"/>
       <c r="AE80" s="1"/>
-      <c r="AF80" s="1" t="s">
-        <v>148</v>
-      </c>
+      <c r="AF80" s="1"/>
       <c r="AG80" s="1"/>
-      <c r="AH80" s="1" t="s">
-        <v>148</v>
-      </c>
+      <c r="AH80" s="1"/>
       <c r="AI80" s="1"/>
-      <c r="AJ80" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AK80" s="1" t="s">
-        <v>148</v>
-      </c>
+      <c r="AJ80" s="1"/>
+      <c r="AK80" s="1"/>
       <c r="AL80" s="1"/>
       <c r="AM80" s="1"/>
       <c r="AN80" s="1"/>
       <c r="AO80" s="1"/>
       <c r="AP80" s="1"/>
       <c r="AQ80" s="1"/>
-      <c r="AR80" s="1"/>
-      <c r="AS80" s="1"/>
-      <c r="AT80" s="1"/>
-      <c r="AU80" s="1"/>
+      <c r="AR80" s="1">
+        <v>91</v>
+      </c>
+      <c r="AS80" s="1">
+        <v>37</v>
+      </c>
+      <c r="AT80" s="1">
+        <v>38</v>
+      </c>
+      <c r="AU80" s="1">
+        <v>39</v>
+      </c>
       <c r="AV80" s="1"/>
       <c r="AW80" s="1"/>
       <c r="AX80" s="1"/>
@@ -8697,49 +8186,30 @@
       <c r="BH80" s="1"/>
       <c r="BI80" s="1"/>
       <c r="BJ80" s="1"/>
-    </row>
-    <row r="81" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK80" s="1"/>
+    </row>
+    <row r="81" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>77</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>149</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
-      <c r="I81" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="K81" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="L81" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="M81" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="N81" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="O81" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="P81" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q81" s="1" t="s">
-        <v>149</v>
-      </c>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
+      <c r="Q81" s="1"/>
       <c r="R81" s="1"/>
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
@@ -8750,28 +8220,24 @@
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
       <c r="AA81" s="1"/>
-      <c r="AB81" s="1"/>
-      <c r="AC81" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AD81" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AE81" s="1"/>
-      <c r="AF81" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AG81" s="1"/>
-      <c r="AH81" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI81" s="1"/>
-      <c r="AJ81" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AK81" s="1" t="s">
-        <v>149</v>
-      </c>
+      <c r="AB81" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC81" s="1"/>
+      <c r="AD81" s="1"/>
+      <c r="AE81" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AF81" s="1"/>
+      <c r="AG81" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH81" s="1"/>
+      <c r="AI81" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AJ81" s="1"/>
+      <c r="AK81" s="1"/>
       <c r="AL81" s="1"/>
       <c r="AM81" s="1"/>
       <c r="AN81" s="1"/>
@@ -8788,60 +8254,63 @@
       <c r="AY81" s="1"/>
       <c r="AZ81" s="1"/>
       <c r="BA81" s="1"/>
-      <c r="BB81" s="1"/>
-      <c r="BC81" s="1"/>
-      <c r="BD81" s="1"/>
-      <c r="BE81" s="1"/>
-      <c r="BF81" s="1"/>
-      <c r="BG81" s="1"/>
+      <c r="BB81" s="1">
+        <v>92</v>
+      </c>
+      <c r="BC81" s="1">
+        <v>14</v>
+      </c>
+      <c r="BD81" s="1">
+        <v>15</v>
+      </c>
+      <c r="BE81" s="1">
+        <v>16</v>
+      </c>
+      <c r="BF81" s="1">
+        <v>17</v>
+      </c>
+      <c r="BG81" s="1">
+        <v>18</v>
+      </c>
       <c r="BH81" s="1"/>
       <c r="BI81" s="1"/>
       <c r="BJ81" s="1"/>
-    </row>
-    <row r="82" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK81" s="1"/>
+    </row>
+    <row r="82" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>78</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>150</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
-      <c r="I82" s="1" t="s">
-        <v>150</v>
-      </c>
+      <c r="I82" s="1"/>
       <c r="J82" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="K82" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="L82" s="1" t="s">
-        <v>150</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
       <c r="M82" s="1" t="s">
-        <v>150</v>
+        <v>84</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="O82" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="P82" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q82" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="R82" s="1"/>
-      <c r="S82" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S82" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="T82" s="1"/>
       <c r="U82" s="1"/>
       <c r="V82" s="1"/>
@@ -8851,41 +8320,45 @@
       <c r="Z82" s="1"/>
       <c r="AA82" s="1"/>
       <c r="AB82" s="1"/>
-      <c r="AC82" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AD82" s="1" t="s">
-        <v>150</v>
-      </c>
+      <c r="AC82" s="1"/>
+      <c r="AD82" s="1"/>
       <c r="AE82" s="1"/>
-      <c r="AF82" s="1" t="s">
-        <v>150</v>
-      </c>
+      <c r="AF82" s="1"/>
       <c r="AG82" s="1"/>
-      <c r="AH82" s="1" t="s">
-        <v>150</v>
-      </c>
+      <c r="AH82" s="1"/>
       <c r="AI82" s="1"/>
-      <c r="AJ82" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AK82" s="1" t="s">
-        <v>150</v>
-      </c>
+      <c r="AJ82" s="1"/>
+      <c r="AK82" s="1"/>
       <c r="AL82" s="1"/>
       <c r="AM82" s="1"/>
       <c r="AN82" s="1"/>
       <c r="AO82" s="1"/>
       <c r="AP82" s="1"/>
       <c r="AQ82" s="1"/>
-      <c r="AR82" s="1"/>
-      <c r="AS82" s="1"/>
-      <c r="AT82" s="1"/>
-      <c r="AU82" s="1"/>
-      <c r="AV82" s="1"/>
-      <c r="AW82" s="1"/>
-      <c r="AX82" s="1"/>
-      <c r="AY82" s="1"/>
+      <c r="AR82" s="1">
+        <v>36</v>
+      </c>
+      <c r="AS82" s="1">
+        <v>37</v>
+      </c>
+      <c r="AT82" s="1">
+        <v>38</v>
+      </c>
+      <c r="AU82" s="1">
+        <v>39</v>
+      </c>
+      <c r="AV82" s="1">
+        <v>93</v>
+      </c>
+      <c r="AW82" s="1">
+        <v>29</v>
+      </c>
+      <c r="AX82" s="1">
+        <v>30</v>
+      </c>
+      <c r="AY82" s="1">
+        <v>31</v>
+      </c>
       <c r="AZ82" s="1"/>
       <c r="BA82" s="1"/>
       <c r="BB82" s="1"/>
@@ -8897,49 +8370,30 @@
       <c r="BH82" s="1"/>
       <c r="BI82" s="1"/>
       <c r="BJ82" s="1"/>
-    </row>
-    <row r="83" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK82" s="1"/>
+    </row>
+    <row r="83" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>79</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>151</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
-      <c r="I83" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="K83" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="L83" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="M83" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="N83" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="O83" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="P83" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q83" s="1" t="s">
-        <v>151</v>
-      </c>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
       <c r="R83" s="1"/>
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
@@ -8951,27 +8405,17 @@
       <c r="Z83" s="1"/>
       <c r="AA83" s="1"/>
       <c r="AB83" s="1"/>
-      <c r="AC83" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AD83" s="1" t="s">
-        <v>151</v>
-      </c>
+      <c r="AC83" s="1"/>
+      <c r="AD83" s="1"/>
       <c r="AE83" s="1"/>
-      <c r="AF83" s="1" t="s">
-        <v>151</v>
-      </c>
+      <c r="AF83" s="1"/>
       <c r="AG83" s="1"/>
-      <c r="AH83" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AI83" s="1"/>
-      <c r="AJ83" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK83" s="1" t="s">
-        <v>151</v>
-      </c>
+      <c r="AH83" s="1"/>
+      <c r="AI83" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AJ83" s="1"/>
+      <c r="AK83" s="1"/>
       <c r="AL83" s="1"/>
       <c r="AM83" s="1"/>
       <c r="AN83" s="1"/>
@@ -8996,15 +8440,22 @@
       <c r="BG83" s="1"/>
       <c r="BH83" s="1"/>
       <c r="BI83" s="1"/>
-      <c r="BJ83" s="1"/>
-    </row>
-    <row r="84" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BJ83" s="1">
+        <v>94</v>
+      </c>
+      <c r="BK83" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>80</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
+      <c r="D84" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
@@ -9015,12 +8466,8 @@
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
-      <c r="O84" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="P84" s="1" t="s">
-        <v>115</v>
-      </c>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
       <c r="R84" s="1"/>
       <c r="S84" s="1"/>
@@ -9034,13 +8481,19 @@
       <c r="AA84" s="1"/>
       <c r="AB84" s="1"/>
       <c r="AC84" s="1"/>
-      <c r="AD84" s="1"/>
+      <c r="AD84" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="AE84" s="1"/>
       <c r="AF84" s="1"/>
       <c r="AG84" s="1"/>
-      <c r="AH84" s="1"/>
+      <c r="AH84" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="AI84" s="1"/>
-      <c r="AJ84" s="1"/>
+      <c r="AJ84" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="AK84" s="1"/>
       <c r="AL84" s="1"/>
       <c r="AM84" s="1"/>
@@ -9067,64 +8520,65 @@
       <c r="BH84" s="1"/>
       <c r="BI84" s="1"/>
       <c r="BJ84" s="1"/>
-    </row>
-    <row r="85" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK84" s="1"/>
+    </row>
+    <row r="85" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>81</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
+      <c r="D85" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
-      <c r="I85" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J85" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
       <c r="O85" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="P85" s="1"/>
-      <c r="Q85" s="1"/>
+        <v>132</v>
+      </c>
+      <c r="P85" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q85" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="R85" s="1"/>
       <c r="S85" s="1"/>
-      <c r="T85" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="U85" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="V85" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="W85" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="X85" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y85" s="1" t="s">
-        <v>128</v>
-      </c>
+      <c r="T85" s="1"/>
+      <c r="U85" s="1"/>
+      <c r="V85" s="1"/>
+      <c r="W85" s="1"/>
+      <c r="X85" s="1"/>
+      <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
       <c r="AA85" s="1"/>
       <c r="AB85" s="1"/>
-      <c r="AC85" s="1"/>
-      <c r="AD85" s="1"/>
+      <c r="AC85" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD85" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="AE85" s="1"/>
-      <c r="AF85" s="1"/>
+      <c r="AF85" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="AG85" s="1"/>
-      <c r="AH85" s="1"/>
+      <c r="AH85" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="AI85" s="1"/>
-      <c r="AJ85" s="1"/>
+      <c r="AJ85" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="AK85" s="1"/>
       <c r="AL85" s="1"/>
       <c r="AM85" s="1"/>
@@ -9140,9 +8594,7 @@
       <c r="AW85" s="1"/>
       <c r="AX85" s="1"/>
       <c r="AY85" s="1"/>
-      <c r="AZ85" s="1">
-        <v>82</v>
-      </c>
+      <c r="AZ85" s="1"/>
       <c r="BA85" s="1"/>
       <c r="BB85" s="1"/>
       <c r="BC85" s="1"/>
@@ -9153,48 +8605,35 @@
       <c r="BH85" s="1"/>
       <c r="BI85" s="1"/>
       <c r="BJ85" s="1"/>
-    </row>
-    <row r="86" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK85" s="1"/>
+    </row>
+    <row r="86" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>82</v>
       </c>
       <c r="B86" s="1"/>
-      <c r="C86" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="C86" s="1"/>
       <c r="D86" s="1" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
-      <c r="I86" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J86" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="K86" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L86" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M86" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N86" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
       <c r="O86" s="1" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="P86" s="1" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="Q86" s="1" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="R86" s="1"/>
       <c r="S86" s="1"/>
@@ -9208,44 +8647,34 @@
       <c r="AA86" s="1"/>
       <c r="AB86" s="1"/>
       <c r="AC86" s="1" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="AD86" s="1" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="AE86" s="1"/>
       <c r="AF86" s="1" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="AG86" s="1"/>
       <c r="AH86" s="1" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="AI86" s="1"/>
       <c r="AJ86" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK86" s="1" t="s">
-        <v>70</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AK86" s="1"/>
       <c r="AL86" s="1"/>
       <c r="AM86" s="1"/>
       <c r="AN86" s="1"/>
       <c r="AO86" s="1"/>
       <c r="AP86" s="1"/>
       <c r="AQ86" s="1"/>
-      <c r="AR86" s="1">
-        <v>91</v>
-      </c>
-      <c r="AS86" s="1">
-        <v>21</v>
-      </c>
-      <c r="AT86" s="1">
-        <v>5</v>
-      </c>
-      <c r="AU86" s="1">
-        <v>7</v>
-      </c>
+      <c r="AR86" s="1"/>
+      <c r="AS86" s="1"/>
+      <c r="AT86" s="1"/>
+      <c r="AU86" s="1"/>
       <c r="AV86" s="1"/>
       <c r="AW86" s="1"/>
       <c r="AX86" s="1"/>
@@ -9261,16 +8690,17 @@
       <c r="BH86" s="1"/>
       <c r="BI86" s="1"/>
       <c r="BJ86" s="1"/>
-    </row>
-    <row r="87" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK86" s="1"/>
+    </row>
+    <row r="87" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>83</v>
       </c>
       <c r="B87" s="1"/>
-      <c r="C87" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
@@ -9281,9 +8711,15 @@
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
-      <c r="O87" s="1"/>
-      <c r="P87" s="1"/>
-      <c r="Q87" s="1"/>
+      <c r="O87" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="P87" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q87" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="R87" s="1"/>
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
@@ -9294,23 +8730,25 @@
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
       <c r="AA87" s="1"/>
-      <c r="AB87" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC87" s="1"/>
-      <c r="AD87" s="1"/>
-      <c r="AE87" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AF87" s="1"/>
-      <c r="AG87" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AH87" s="1"/>
-      <c r="AI87" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AJ87" s="1"/>
+      <c r="AB87" s="1"/>
+      <c r="AC87" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD87" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE87" s="1"/>
+      <c r="AF87" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG87" s="1"/>
+      <c r="AH87" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI87" s="1"/>
+      <c r="AJ87" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="AK87" s="1"/>
       <c r="AL87" s="1"/>
       <c r="AM87" s="1"/>
@@ -9328,130 +8766,89 @@
       <c r="AY87" s="1"/>
       <c r="AZ87" s="1"/>
       <c r="BA87" s="1"/>
-      <c r="BB87" s="1">
-        <v>92</v>
-      </c>
-      <c r="BC87" s="1">
-        <v>27</v>
-      </c>
-      <c r="BD87" s="1">
-        <v>28</v>
-      </c>
-      <c r="BE87" s="1">
-        <v>29</v>
-      </c>
-      <c r="BF87" s="1">
-        <v>30</v>
-      </c>
-      <c r="BG87" s="1">
-        <v>31</v>
-      </c>
+      <c r="BB87" s="1"/>
+      <c r="BC87" s="1"/>
+      <c r="BD87" s="1"/>
+      <c r="BE87" s="1"/>
+      <c r="BF87" s="1"/>
+      <c r="BG87" s="1"/>
       <c r="BH87" s="1"/>
       <c r="BI87" s="1"/>
       <c r="BJ87" s="1"/>
-    </row>
-    <row r="88" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK87" s="1"/>
+    </row>
+    <row r="88" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>84</v>
       </c>
       <c r="B88" s="1"/>
-      <c r="C88" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
-      <c r="I88" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J88" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="K88" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L88" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M88" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N88" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="O88" s="1"/>
-      <c r="P88" s="1"/>
-      <c r="Q88" s="1"/>
-      <c r="R88" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="S88" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="T88" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="U88" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="V88" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="W88" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="X88" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y88" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="P88" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q88" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="R88" s="1"/>
+      <c r="S88" s="1"/>
+      <c r="T88" s="1"/>
+      <c r="U88" s="1"/>
+      <c r="V88" s="1"/>
+      <c r="W88" s="1"/>
+      <c r="X88" s="1"/>
+      <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
       <c r="AA88" s="1"/>
       <c r="AB88" s="1"/>
-      <c r="AC88" s="1"/>
-      <c r="AD88" s="1"/>
+      <c r="AC88" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD88" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="AE88" s="1"/>
-      <c r="AF88" s="1"/>
+      <c r="AF88" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="AG88" s="1"/>
-      <c r="AH88" s="1"/>
+      <c r="AH88" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="AI88" s="1"/>
-      <c r="AJ88" s="1"/>
-      <c r="AK88" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="AJ88" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AK88" s="1"/>
       <c r="AL88" s="1"/>
       <c r="AM88" s="1"/>
       <c r="AN88" s="1"/>
       <c r="AO88" s="1"/>
       <c r="AP88" s="1"/>
       <c r="AQ88" s="1"/>
-      <c r="AR88" s="1">
-        <v>52</v>
-      </c>
-      <c r="AS88" s="1">
-        <v>21</v>
-      </c>
-      <c r="AT88" s="1">
-        <v>5</v>
-      </c>
-      <c r="AU88" s="1">
-        <v>7</v>
-      </c>
-      <c r="AV88" s="1">
-        <v>93</v>
-      </c>
-      <c r="AW88" s="1">
-        <v>45</v>
-      </c>
-      <c r="AX88" s="1">
-        <v>46</v>
-      </c>
-      <c r="AY88" s="1">
-        <v>47</v>
-      </c>
+      <c r="AR88" s="1"/>
+      <c r="AS88" s="1"/>
+      <c r="AT88" s="1"/>
+      <c r="AU88" s="1"/>
+      <c r="AV88" s="1"/>
+      <c r="AW88" s="1"/>
+      <c r="AX88" s="1"/>
+      <c r="AY88" s="1"/>
       <c r="AZ88" s="1"/>
       <c r="BA88" s="1"/>
       <c r="BB88" s="1"/>
@@ -9463,87 +8860,84 @@
       <c r="BH88" s="1"/>
       <c r="BI88" s="1"/>
       <c r="BJ88" s="1"/>
-    </row>
-    <row r="89" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK88" s="1"/>
+    </row>
+    <row r="89" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>85</v>
       </c>
       <c r="B89" s="1"/>
-      <c r="C89" s="1" t="s">
-        <v>75</v>
-      </c>
+      <c r="C89" s="1"/>
       <c r="D89" s="1" t="s">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1" t="s">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
       <c r="O89" s="1" t="s">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="P89" s="1" t="s">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="Q89" s="1" t="s">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="R89" s="1"/>
       <c r="S89" s="1"/>
       <c r="T89" s="1" t="s">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="U89" s="1" t="s">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="V89" s="1" t="s">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="W89" s="1" t="s">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="X89" s="1" t="s">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="Y89" s="1" t="s">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="Z89" s="1"/>
       <c r="AA89" s="1"/>
       <c r="AB89" s="1"/>
       <c r="AC89" s="1" t="s">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="AD89" s="1" t="s">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="AE89" s="1"/>
       <c r="AF89" s="1" t="s">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="AG89" s="1"/>
       <c r="AH89" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AI89" s="1" t="s">
-        <v>153</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="AI89" s="1"/>
       <c r="AJ89" s="1" t="s">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="AK89" s="1"/>
       <c r="AL89" s="1"/>
@@ -9569,35 +8963,42 @@
       <c r="BF89" s="1"/>
       <c r="BG89" s="1"/>
       <c r="BH89" s="1"/>
-      <c r="BI89" s="1">
-        <v>94</v>
-      </c>
-      <c r="BJ89" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="90" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BI89" s="1"/>
+      <c r="BJ89" s="1"/>
+      <c r="BK89" s="1"/>
+    </row>
+    <row r="90" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>86</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
+      <c r="I90" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
-      <c r="O90" s="1"/>
-      <c r="P90" s="1"/>
-      <c r="Q90" s="1"/>
+      <c r="O90" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P90" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q90" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="R90" s="1"/>
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
@@ -9609,19 +9010,23 @@
       <c r="Z90" s="1"/>
       <c r="AA90" s="1"/>
       <c r="AB90" s="1"/>
-      <c r="AC90" s="1"/>
+      <c r="AC90" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="AD90" s="1" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="AE90" s="1"/>
-      <c r="AF90" s="1"/>
+      <c r="AF90" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="AG90" s="1"/>
       <c r="AH90" s="1" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="AI90" s="1"/>
       <c r="AJ90" s="1" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="AK90" s="1"/>
       <c r="AL90" s="1"/>
@@ -9649,63 +9054,84 @@
       <c r="BH90" s="1"/>
       <c r="BI90" s="1"/>
       <c r="BJ90" s="1"/>
-    </row>
-    <row r="91" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK90" s="1"/>
+    </row>
+    <row r="91" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>87</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
-      <c r="K91" s="1"/>
-      <c r="L91" s="1"/>
+      <c r="I91" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
       <c r="O91" s="1" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="P91" s="1" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="Q91" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="R91" s="1"/>
       <c r="S91" s="1"/>
-      <c r="T91" s="1"/>
-      <c r="U91" s="1"/>
-      <c r="V91" s="1"/>
-      <c r="W91" s="1"/>
-      <c r="X91" s="1"/>
-      <c r="Y91" s="1"/>
+      <c r="T91" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="U91" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="V91" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="W91" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="X91" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y91" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="Z91" s="1"/>
       <c r="AA91" s="1"/>
       <c r="AB91" s="1"/>
       <c r="AC91" s="1" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="AD91" s="1" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="AE91" s="1"/>
       <c r="AF91" s="1" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="AG91" s="1"/>
       <c r="AH91" s="1" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="AI91" s="1"/>
       <c r="AJ91" s="1" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="AK91" s="1"/>
       <c r="AL91" s="1"/>
@@ -9733,63 +9159,84 @@
       <c r="BH91" s="1"/>
       <c r="BI91" s="1"/>
       <c r="BJ91" s="1"/>
-    </row>
-    <row r="92" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK91" s="1"/>
+    </row>
+    <row r="92" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>88</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
-      <c r="K92" s="1"/>
-      <c r="L92" s="1"/>
+      <c r="I92" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
       <c r="O92" s="1" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="P92" s="1" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="Q92" s="1" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="R92" s="1"/>
       <c r="S92" s="1"/>
-      <c r="T92" s="1"/>
-      <c r="U92" s="1"/>
-      <c r="V92" s="1"/>
-      <c r="W92" s="1"/>
-      <c r="X92" s="1"/>
-      <c r="Y92" s="1"/>
+      <c r="T92" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="U92" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="V92" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="W92" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="X92" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y92" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="Z92" s="1"/>
       <c r="AA92" s="1"/>
       <c r="AB92" s="1"/>
       <c r="AC92" s="1" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="AD92" s="1" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="AE92" s="1"/>
       <c r="AF92" s="1" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="AG92" s="1"/>
       <c r="AH92" s="1" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="AI92" s="1"/>
       <c r="AJ92" s="1" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="AK92" s="1"/>
       <c r="AL92" s="1"/>
@@ -9817,63 +9264,84 @@
       <c r="BH92" s="1"/>
       <c r="BI92" s="1"/>
       <c r="BJ92" s="1"/>
-    </row>
-    <row r="93" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK92" s="1"/>
+    </row>
+    <row r="93" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>89</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1" t="s">
-        <v>157</v>
+        <v>82</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
-      <c r="K93" s="1"/>
-      <c r="L93" s="1"/>
+      <c r="I93" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
       <c r="O93" s="1" t="s">
-        <v>157</v>
+        <v>82</v>
       </c>
       <c r="P93" s="1" t="s">
-        <v>157</v>
+        <v>82</v>
       </c>
       <c r="Q93" s="1" t="s">
-        <v>157</v>
+        <v>82</v>
       </c>
       <c r="R93" s="1"/>
       <c r="S93" s="1"/>
-      <c r="T93" s="1"/>
-      <c r="U93" s="1"/>
-      <c r="V93" s="1"/>
-      <c r="W93" s="1"/>
-      <c r="X93" s="1"/>
-      <c r="Y93" s="1"/>
+      <c r="T93" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="U93" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="V93" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="W93" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="X93" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y93" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="Z93" s="1"/>
       <c r="AA93" s="1"/>
       <c r="AB93" s="1"/>
       <c r="AC93" s="1" t="s">
-        <v>157</v>
+        <v>82</v>
       </c>
       <c r="AD93" s="1" t="s">
-        <v>157</v>
+        <v>82</v>
       </c>
       <c r="AE93" s="1"/>
       <c r="AF93" s="1" t="s">
-        <v>157</v>
+        <v>82</v>
       </c>
       <c r="AG93" s="1"/>
       <c r="AH93" s="1" t="s">
-        <v>157</v>
+        <v>82</v>
       </c>
       <c r="AI93" s="1"/>
       <c r="AJ93" s="1" t="s">
-        <v>157</v>
+        <v>82</v>
       </c>
       <c r="AK93" s="1"/>
       <c r="AL93" s="1"/>
@@ -9901,63 +9369,84 @@
       <c r="BH93" s="1"/>
       <c r="BI93" s="1"/>
       <c r="BJ93" s="1"/>
-    </row>
-    <row r="94" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK93" s="1"/>
+    </row>
+    <row r="94" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>90</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1" t="s">
-        <v>158</v>
+        <v>83</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
-      <c r="J94" s="1"/>
-      <c r="K94" s="1"/>
-      <c r="L94" s="1"/>
+      <c r="I94" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
       <c r="O94" s="1" t="s">
-        <v>158</v>
+        <v>83</v>
       </c>
       <c r="P94" s="1" t="s">
-        <v>158</v>
+        <v>83</v>
       </c>
       <c r="Q94" s="1" t="s">
-        <v>158</v>
+        <v>83</v>
       </c>
       <c r="R94" s="1"/>
       <c r="S94" s="1"/>
-      <c r="T94" s="1"/>
-      <c r="U94" s="1"/>
-      <c r="V94" s="1"/>
-      <c r="W94" s="1"/>
-      <c r="X94" s="1"/>
-      <c r="Y94" s="1"/>
+      <c r="T94" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="U94" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="V94" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="W94" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="X94" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y94" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="Z94" s="1"/>
       <c r="AA94" s="1"/>
       <c r="AB94" s="1"/>
       <c r="AC94" s="1" t="s">
-        <v>158</v>
+        <v>83</v>
       </c>
       <c r="AD94" s="1" t="s">
-        <v>158</v>
+        <v>83</v>
       </c>
       <c r="AE94" s="1"/>
       <c r="AF94" s="1" t="s">
-        <v>158</v>
+        <v>83</v>
       </c>
       <c r="AG94" s="1"/>
       <c r="AH94" s="1" t="s">
-        <v>158</v>
+        <v>83</v>
       </c>
       <c r="AI94" s="1"/>
       <c r="AJ94" s="1" t="s">
-        <v>158</v>
+        <v>83</v>
       </c>
       <c r="AK94" s="1"/>
       <c r="AL94" s="1"/>
@@ -9985,39 +9474,34 @@
       <c r="BH94" s="1"/>
       <c r="BI94" s="1"/>
       <c r="BJ94" s="1"/>
-    </row>
-    <row r="95" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK94" s="1"/>
+    </row>
+    <row r="95" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>91</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
-      <c r="D95" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
       <c r="O95" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="P95" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q95" s="1" t="s">
-        <v>159</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="P95" s="1"/>
+      <c r="Q95" s="1"/>
       <c r="R95" s="1"/>
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
@@ -10029,24 +9513,14 @@
       <c r="Z95" s="1"/>
       <c r="AA95" s="1"/>
       <c r="AB95" s="1"/>
-      <c r="AC95" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AD95" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="AC95" s="1"/>
+      <c r="AD95" s="1"/>
       <c r="AE95" s="1"/>
-      <c r="AF95" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="AF95" s="1"/>
       <c r="AG95" s="1"/>
-      <c r="AH95" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="AH95" s="1"/>
       <c r="AI95" s="1"/>
-      <c r="AJ95" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="AJ95" s="1"/>
       <c r="AK95" s="1"/>
       <c r="AL95" s="1"/>
       <c r="AM95" s="1"/>
@@ -10073,15 +9547,16 @@
       <c r="BH95" s="1"/>
       <c r="BI95" s="1"/>
       <c r="BJ95" s="1"/>
-    </row>
-    <row r="96" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK95" s="1"/>
+    </row>
+    <row r="96" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>92</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -10109,17 +9584,17 @@
       <c r="AB96" s="1"/>
       <c r="AC96" s="1"/>
       <c r="AD96" s="1" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="AE96" s="1"/>
       <c r="AF96" s="1"/>
       <c r="AG96" s="1"/>
       <c r="AH96" s="1" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="AI96" s="1"/>
       <c r="AJ96" s="1" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="AK96" s="1"/>
       <c r="AL96" s="1"/>
@@ -10147,15 +9622,16 @@
       <c r="BH96" s="1"/>
       <c r="BI96" s="1"/>
       <c r="BJ96" s="1"/>
-    </row>
-    <row r="97" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK96" s="1"/>
+    </row>
+    <row r="97" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>93</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -10169,7 +9645,7 @@
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
       <c r="P97" s="1" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="Q97" s="1"/>
       <c r="R97" s="1"/>
@@ -10185,17 +9661,17 @@
       <c r="AB97" s="1"/>
       <c r="AC97" s="1"/>
       <c r="AD97" s="1" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="AE97" s="1"/>
       <c r="AF97" s="1"/>
       <c r="AG97" s="1"/>
       <c r="AH97" s="1" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="AI97" s="1"/>
       <c r="AJ97" s="1" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="AK97" s="1"/>
       <c r="AL97" s="1"/>
@@ -10223,86 +9699,49 @@
       <c r="BH97" s="1"/>
       <c r="BI97" s="1"/>
       <c r="BJ97" s="1"/>
-    </row>
-    <row r="98" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK97" s="1"/>
+    </row>
+    <row r="98" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>94</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
-      <c r="D98" s="1" t="s">
-        <v>162</v>
-      </c>
+      <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
-      <c r="I98" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="J98" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="K98" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="L98" s="1" t="s">
-        <v>162</v>
-      </c>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
-      <c r="O98" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="P98" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q98" s="1" t="s">
-        <v>162</v>
-      </c>
+      <c r="O98" s="1"/>
+      <c r="P98" s="1"/>
+      <c r="Q98" s="1"/>
       <c r="R98" s="1"/>
       <c r="S98" s="1"/>
-      <c r="T98" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="U98" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="V98" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="W98" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="X98" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="Y98" s="1" t="s">
-        <v>162</v>
-      </c>
+      <c r="T98" s="1"/>
+      <c r="U98" s="1"/>
+      <c r="V98" s="1"/>
+      <c r="W98" s="1"/>
+      <c r="X98" s="1"/>
+      <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
       <c r="AA98" s="1"/>
       <c r="AB98" s="1"/>
-      <c r="AC98" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AD98" s="1" t="s">
-        <v>162</v>
-      </c>
+      <c r="AC98" s="1"/>
+      <c r="AD98" s="1"/>
       <c r="AE98" s="1"/>
-      <c r="AF98" s="1" t="s">
-        <v>162</v>
-      </c>
+      <c r="AF98" s="1"/>
       <c r="AG98" s="1"/>
-      <c r="AH98" s="1" t="s">
-        <v>162</v>
-      </c>
+      <c r="AH98" s="1"/>
       <c r="AI98" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AJ98" s="1" t="s">
-        <v>162</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="AJ98" s="1"/>
       <c r="AK98" s="1"/>
       <c r="AL98" s="1"/>
       <c r="AM98" s="1"/>
@@ -10329,14 +9768,15 @@
       <c r="BH98" s="1"/>
       <c r="BI98" s="1"/>
       <c r="BJ98" s="1"/>
-    </row>
-    <row r="99" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK98" s="1"/>
+    </row>
+    <row r="99" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>95</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="1" t="s">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -10363,20 +9803,20 @@
       <c r="Z99" s="1"/>
       <c r="AA99" s="1"/>
       <c r="AB99" s="1" t="s">
-        <v>81</v>
+        <v>175</v>
       </c>
       <c r="AC99" s="1"/>
       <c r="AD99" s="1"/>
       <c r="AE99" s="1" t="s">
-        <v>82</v>
+        <v>176</v>
       </c>
       <c r="AF99" s="1"/>
       <c r="AG99" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="AH99" s="1"/>
       <c r="AI99" s="1" t="s">
-        <v>73</v>
+        <v>173</v>
       </c>
       <c r="AJ99" s="1"/>
       <c r="AK99" s="1"/>
@@ -10400,32 +9840,33 @@
         <v>96</v>
       </c>
       <c r="BC99" s="1">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="BD99" s="1">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="BE99" s="1">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="BF99" s="1">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="BG99" s="1">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="BH99" s="1"/>
       <c r="BI99" s="1"/>
       <c r="BJ99" s="1"/>
-    </row>
-    <row r="100" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK99" s="1"/>
+    </row>
+    <row r="100" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>96</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
@@ -10453,17 +9894,17 @@
       <c r="AB100" s="1"/>
       <c r="AC100" s="1"/>
       <c r="AD100" s="1" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="AE100" s="1"/>
       <c r="AF100" s="1"/>
       <c r="AG100" s="1"/>
       <c r="AH100" s="1" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="AI100" s="1"/>
       <c r="AJ100" s="1" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="AK100" s="1"/>
       <c r="AL100" s="1"/>
@@ -10491,11 +9932,12 @@
       <c r="BH100" s="1"/>
       <c r="BI100" s="1"/>
       <c r="BJ100" s="1"/>
+      <c r="BK100" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:AN2"/>
-    <mergeCell ref="AO2:BJ2"/>
+    <mergeCell ref="AO2:BK2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10507,8 +9949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{974DB324-053D-4CBB-BDC5-65D49E568C61}">
   <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -10518,131 +9960,132 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>184</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>191</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>196</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/final_method/分析表.xlsx
+++ b/final_method/分析表.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\user\source\repos\Compiler\final_method\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E25ABAC-09B9-4C2D-8AA0-3886C18B5E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6969B7-CFEF-4082-8043-8DF7DFED6AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{85660D98-9A17-4E4E-93F8-C6FB2685D6EB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{85660D98-9A17-4E4E-93F8-C6FB2685D6EB}"/>
   </bookViews>
   <sheets>
     <sheet name="LALR(1)分析表" sheetId="4" r:id="rId1"/>
     <sheet name="非终结符说明" sheetId="5" r:id="rId2"/>
+    <sheet name="语法规则编号" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="257">
   <si>
     <t>acc</t>
   </si>
@@ -1250,6 +1251,174 @@
       <t>r16</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P -&gt; program f ; Q M .</t>
+  </si>
+  <si>
+    <t>T -&gt; integer</t>
+  </si>
+  <si>
+    <t>T -&gt; bool</t>
+  </si>
+  <si>
+    <t>T -&gt; char</t>
+  </si>
+  <si>
+    <t>X -&gt; A</t>
+  </si>
+  <si>
+    <t>X -&gt; B</t>
+  </si>
+  <si>
+    <t>X -&gt; C</t>
+  </si>
+  <si>
+    <t>A -&gt; A + I</t>
+  </si>
+  <si>
+    <t>A -&gt; A - I</t>
+  </si>
+  <si>
+    <t>A -&gt; I</t>
+  </si>
+  <si>
+    <t>I -&gt; I * F</t>
+  </si>
+  <si>
+    <t>I -&gt; I / F</t>
+  </si>
+  <si>
+    <t>I -&gt; F</t>
+  </si>
+  <si>
+    <t>F -&gt; V</t>
+  </si>
+  <si>
+    <t>F -&gt; - F</t>
+  </si>
+  <si>
+    <t>V -&gt; i</t>
+  </si>
+  <si>
+    <t>V -&gt; f</t>
+  </si>
+  <si>
+    <t>V -&gt; ( A )</t>
+  </si>
+  <si>
+    <t>B -&gt; B or J</t>
+  </si>
+  <si>
+    <t>B -&gt; J</t>
+  </si>
+  <si>
+    <t>J -&gt; J and G</t>
+  </si>
+  <si>
+    <t>J -&gt; G</t>
+  </si>
+  <si>
+    <t>G -&gt; U</t>
+  </si>
+  <si>
+    <t>G -&gt; not G</t>
+  </si>
+  <si>
+    <t>U -&gt; w</t>
+  </si>
+  <si>
+    <t>U -&gt; f</t>
+  </si>
+  <si>
+    <t>U -&gt; ( B )</t>
+  </si>
+  <si>
+    <t>U -&gt; f R f</t>
+  </si>
+  <si>
+    <t>U -&gt; A R A</t>
+  </si>
+  <si>
+    <t>R -&gt; &lt;</t>
+  </si>
+  <si>
+    <t>R -&gt; &lt;&gt;</t>
+  </si>
+  <si>
+    <t>R -&gt; &lt;=</t>
+  </si>
+  <si>
+    <t>R -&gt; &gt;=</t>
+  </si>
+  <si>
+    <t>R -&gt; &gt;</t>
+  </si>
+  <si>
+    <t>R -&gt; =</t>
+  </si>
+  <si>
+    <t>C -&gt; t</t>
+  </si>
+  <si>
+    <t>C -&gt; f</t>
+  </si>
+  <si>
+    <t>S -&gt; E</t>
+  </si>
+  <si>
+    <t>S -&gt; IF_S</t>
+  </si>
+  <si>
+    <t>S -&gt; WHILE_S</t>
+  </si>
+  <si>
+    <t>S -&gt; REPEAT_S</t>
+  </si>
+  <si>
+    <t>S -&gt; M</t>
+  </si>
+  <si>
+    <t>E -&gt; f := X</t>
+  </si>
+  <si>
+    <t>IF_S -&gt; if B then S</t>
+  </si>
+  <si>
+    <t>IF_S -&gt; if B then S else S</t>
+  </si>
+  <si>
+    <t>WHILE_S -&gt; while B do S</t>
+  </si>
+  <si>
+    <t>REPEAT_S -&gt; repeat S until B</t>
+  </si>
+  <si>
+    <t>M -&gt; begin L end</t>
+  </si>
+  <si>
+    <t>L -&gt; S ; L</t>
+  </si>
+  <si>
+    <t>L -&gt; S</t>
+  </si>
+  <si>
+    <t>Q -&gt; var D</t>
+  </si>
+  <si>
+    <t>Q -&gt; ''</t>
+  </si>
+  <si>
+    <t>D -&gt; O : T ; D</t>
+  </si>
+  <si>
+    <t>D -&gt; O : T ;</t>
+  </si>
+  <si>
+    <t>O -&gt; f , O</t>
+  </si>
+  <si>
+    <t>O -&gt; f</t>
   </si>
 </sst>
 </file>
@@ -1312,7 +1481,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1372,24 +1541,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1398,6 +1570,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1717,79 +1898,79 @@
   <sheetPr codeName="工作表2"/>
   <dimension ref="A2:BK100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A52" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="BJ16" sqref="BJ16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="1:63" x14ac:dyDescent="0.3">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="5"/>
-      <c r="AM2" s="5"/>
-      <c r="AN2" s="6"/>
-      <c r="AO2" s="4" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="4"/>
+      <c r="AO2" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="AP2" s="5"/>
-      <c r="AQ2" s="5"/>
-      <c r="AR2" s="5"/>
-      <c r="AS2" s="5"/>
-      <c r="AT2" s="5"/>
-      <c r="AU2" s="5"/>
-      <c r="AV2" s="5"/>
-      <c r="AW2" s="5"/>
-      <c r="AX2" s="5"/>
-      <c r="AY2" s="5"/>
-      <c r="AZ2" s="5"/>
-      <c r="BA2" s="5"/>
-      <c r="BB2" s="5"/>
-      <c r="BC2" s="5"/>
-      <c r="BD2" s="5"/>
-      <c r="BE2" s="5"/>
-      <c r="BF2" s="5"/>
-      <c r="BG2" s="5"/>
-      <c r="BH2" s="5"/>
-      <c r="BI2" s="5"/>
-      <c r="BJ2" s="5"/>
-      <c r="BK2" s="5"/>
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="3"/>
+      <c r="AR2" s="3"/>
+      <c r="AS2" s="3"/>
+      <c r="AT2" s="3"/>
+      <c r="AU2" s="3"/>
+      <c r="AV2" s="3"/>
+      <c r="AW2" s="3"/>
+      <c r="AX2" s="3"/>
+      <c r="AY2" s="3"/>
+      <c r="AZ2" s="3"/>
+      <c r="BA2" s="3"/>
+      <c r="BB2" s="3"/>
+      <c r="BC2" s="3"/>
+      <c r="BD2" s="3"/>
+      <c r="BE2" s="3"/>
+      <c r="BF2" s="3"/>
+      <c r="BG2" s="3"/>
+      <c r="BH2" s="3"/>
+      <c r="BI2" s="3"/>
+      <c r="BJ2" s="3"/>
+      <c r="BK2" s="3"/>
     </row>
     <row r="3" spans="1:63" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -9949,8 +10130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{974DB324-053D-4CBB-BDC5-65D49E568C61}">
   <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -9959,127 +10140,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="5" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="5" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="5" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="5" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="5" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="5" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="5" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="5" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="5" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="5" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="5" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="5" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="5" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="5" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="5" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="5" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="5" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="5" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="5" t="s">
         <v>167</v>
       </c>
     </row>
@@ -10088,4 +10269,639 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3551D49-187C-4829-9BA5-46F59B673A80}">
+  <dimension ref="A1:D56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="6">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>26</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
+        <v>27</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
+        <v>28</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="6">
+        <v>29</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="6">
+        <v>30</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="6">
+        <v>31</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="6">
+        <v>32</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="6">
+        <v>33</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="6">
+        <v>34</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="6">
+        <v>35</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="6">
+        <v>36</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="6">
+        <v>37</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="6">
+        <v>38</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="6">
+        <v>39</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="6">
+        <v>40</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="6">
+        <v>41</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="6">
+        <v>42</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="6">
+        <v>43</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="6">
+        <v>44</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="6">
+        <v>45</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="6">
+        <v>46</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="6">
+        <v>47</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="6">
+        <v>48</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="6">
+        <v>49</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="6">
+        <v>50</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="6">
+        <v>51</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="6">
+        <v>52</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="6">
+        <v>53</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="6">
+        <v>54</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="6">
+        <v>55</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="56">
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/final_method/分析表.xlsx
+++ b/final_method/分析表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\user\source\repos\Compiler\final_method\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6969B7-CFEF-4082-8043-8DF7DFED6AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8D4C40-2B73-4969-879C-8FF7B9F92774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{85660D98-9A17-4E4E-93F8-C6FB2685D6EB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{85660D98-9A17-4E4E-93F8-C6FB2685D6EB}"/>
   </bookViews>
   <sheets>
     <sheet name="LALR(1)分析表" sheetId="4" r:id="rId1"/>
@@ -1425,7 +1425,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1465,6 +1465,13 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="SimSun"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Courier"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1556,11 +1563,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1571,12 +1587,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1898,79 +1908,79 @@
   <sheetPr codeName="工作表2"/>
   <dimension ref="A2:BK100"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="BJ16" sqref="BJ16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="1:63" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="3"/>
-      <c r="AK2" s="3"/>
-      <c r="AL2" s="3"/>
-      <c r="AM2" s="3"/>
-      <c r="AN2" s="4"/>
-      <c r="AO2" s="2" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6"/>
+      <c r="AN2" s="7"/>
+      <c r="AO2" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="AP2" s="3"/>
-      <c r="AQ2" s="3"/>
-      <c r="AR2" s="3"/>
-      <c r="AS2" s="3"/>
-      <c r="AT2" s="3"/>
-      <c r="AU2" s="3"/>
-      <c r="AV2" s="3"/>
-      <c r="AW2" s="3"/>
-      <c r="AX2" s="3"/>
-      <c r="AY2" s="3"/>
-      <c r="AZ2" s="3"/>
-      <c r="BA2" s="3"/>
-      <c r="BB2" s="3"/>
-      <c r="BC2" s="3"/>
-      <c r="BD2" s="3"/>
-      <c r="BE2" s="3"/>
-      <c r="BF2" s="3"/>
-      <c r="BG2" s="3"/>
-      <c r="BH2" s="3"/>
-      <c r="BI2" s="3"/>
-      <c r="BJ2" s="3"/>
-      <c r="BK2" s="3"/>
+      <c r="AP2" s="6"/>
+      <c r="AQ2" s="6"/>
+      <c r="AR2" s="6"/>
+      <c r="AS2" s="6"/>
+      <c r="AT2" s="6"/>
+      <c r="AU2" s="6"/>
+      <c r="AV2" s="6"/>
+      <c r="AW2" s="6"/>
+      <c r="AX2" s="6"/>
+      <c r="AY2" s="6"/>
+      <c r="AZ2" s="6"/>
+      <c r="BA2" s="6"/>
+      <c r="BB2" s="6"/>
+      <c r="BC2" s="6"/>
+      <c r="BD2" s="6"/>
+      <c r="BE2" s="6"/>
+      <c r="BF2" s="6"/>
+      <c r="BG2" s="6"/>
+      <c r="BH2" s="6"/>
+      <c r="BI2" s="6"/>
+      <c r="BJ2" s="6"/>
+      <c r="BK2" s="6"/>
     </row>
     <row r="3" spans="1:63" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -2167,44 +2177,44 @@
       <c r="B4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
-      <c r="AG4" s="1"/>
-      <c r="AH4" s="1"/>
-      <c r="AI4" s="1"/>
-      <c r="AJ4" s="1"/>
-      <c r="AK4" s="1"/>
-      <c r="AL4" s="1"/>
-      <c r="AM4" s="1"/>
-      <c r="AN4" s="1"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="4"/>
       <c r="AO4" s="1"/>
       <c r="AP4" s="1"/>
       <c r="AQ4" s="1"/>
@@ -2233,47 +2243,47 @@
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="4"/>
       <c r="C5" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="1"/>
-      <c r="AG5" s="1"/>
-      <c r="AH5" s="1"/>
-      <c r="AI5" s="1"/>
-      <c r="AJ5" s="1"/>
-      <c r="AK5" s="1"/>
-      <c r="AL5" s="1"/>
-      <c r="AM5" s="1"/>
-      <c r="AN5" s="1"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="4"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="4"/>
       <c r="AO5" s="1"/>
       <c r="AP5" s="1"/>
       <c r="AQ5" s="1"/>
@@ -2302,47 +2312,47 @@
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
       <c r="D6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="1"/>
-      <c r="AG6" s="1"/>
-      <c r="AH6" s="1"/>
-      <c r="AI6" s="1"/>
-      <c r="AJ6" s="1"/>
-      <c r="AK6" s="1"/>
-      <c r="AL6" s="1"/>
-      <c r="AM6" s="1"/>
-      <c r="AN6" s="1"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="4"/>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="4"/>
       <c r="AO6" s="1"/>
       <c r="AP6" s="1"/>
       <c r="AQ6" s="1"/>
@@ -2371,49 +2381,49 @@
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
-      <c r="AF7" s="1"/>
-      <c r="AG7" s="1"/>
-      <c r="AH7" s="1"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
       <c r="AI7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AJ7" s="1"/>
+      <c r="AJ7" s="4"/>
       <c r="AK7" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="AL7" s="1"/>
-      <c r="AM7" s="1"/>
-      <c r="AN7" s="1"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="4"/>
       <c r="AO7" s="1"/>
       <c r="AP7" s="1"/>
       <c r="AQ7" s="1"/>
@@ -2444,47 +2454,47 @@
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="1"/>
-      <c r="AF8" s="1"/>
-      <c r="AG8" s="1"/>
-      <c r="AH8" s="1"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
       <c r="AI8" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AJ8" s="1"/>
-      <c r="AK8" s="1"/>
-      <c r="AL8" s="1"/>
-      <c r="AM8" s="1"/>
-      <c r="AN8" s="1"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="4"/>
       <c r="AO8" s="1"/>
       <c r="AP8" s="1"/>
       <c r="AQ8" s="1"/>
@@ -2515,47 +2525,47 @@
       <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" s="4"/>
       <c r="C9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="1"/>
-      <c r="AF9" s="1"/>
-      <c r="AG9" s="1"/>
-      <c r="AH9" s="1"/>
-      <c r="AI9" s="1"/>
-      <c r="AJ9" s="1"/>
-      <c r="AK9" s="1"/>
-      <c r="AL9" s="1"/>
-      <c r="AM9" s="1"/>
-      <c r="AN9" s="1"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="4"/>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4"/>
+      <c r="AN9" s="4"/>
       <c r="AO9" s="1"/>
       <c r="AP9" s="1"/>
       <c r="AQ9" s="1"/>
@@ -2588,47 +2598,47 @@
       <c r="A10" s="1">
         <v>6</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
       <c r="E10" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="1"/>
-      <c r="AH10" s="1"/>
-      <c r="AI10" s="1"/>
-      <c r="AJ10" s="1"/>
-      <c r="AK10" s="1"/>
-      <c r="AL10" s="1"/>
-      <c r="AM10" s="1"/>
-      <c r="AN10" s="1"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
+      <c r="AK10" s="4"/>
+      <c r="AL10" s="4"/>
+      <c r="AM10" s="4"/>
+      <c r="AN10" s="4"/>
       <c r="AO10" s="1"/>
       <c r="AP10" s="1"/>
       <c r="AQ10" s="1"/>
@@ -2657,55 +2667,55 @@
       <c r="A11" s="1">
         <v>7</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" s="4"/>
       <c r="C11" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
       <c r="AB11" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
       <c r="AE11" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="AF11" s="1"/>
+      <c r="AF11" s="4"/>
       <c r="AG11" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AH11" s="1"/>
+      <c r="AH11" s="4"/>
       <c r="AI11" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AJ11" s="1"/>
-      <c r="AK11" s="1"/>
-      <c r="AL11" s="1"/>
-      <c r="AM11" s="1"/>
-      <c r="AN11" s="1"/>
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="4"/>
+      <c r="AL11" s="4"/>
+      <c r="AM11" s="4"/>
+      <c r="AN11" s="4"/>
       <c r="AO11" s="1"/>
       <c r="AP11" s="1"/>
       <c r="AQ11" s="1"/>
@@ -2748,47 +2758,47 @@
       <c r="A12" s="1">
         <v>8</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1"/>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="1"/>
-      <c r="AF12" s="1"/>
-      <c r="AG12" s="1"/>
-      <c r="AH12" s="1"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
       <c r="AI12" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AJ12" s="1"/>
-      <c r="AK12" s="1"/>
-      <c r="AL12" s="1"/>
-      <c r="AM12" s="1"/>
-      <c r="AN12" s="1"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="4"/>
+      <c r="AL12" s="4"/>
+      <c r="AM12" s="4"/>
+      <c r="AN12" s="4"/>
       <c r="AO12" s="1"/>
       <c r="AP12" s="1"/>
       <c r="AQ12" s="1"/>
@@ -2817,47 +2827,47 @@
       <c r="A13" s="1">
         <v>9</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="1"/>
-      <c r="AF13" s="1"/>
-      <c r="AG13" s="1"/>
-      <c r="AH13" s="1"/>
-      <c r="AI13" s="1"/>
-      <c r="AJ13" s="1"/>
-      <c r="AK13" s="1"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="4"/>
       <c r="AL13" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="AM13" s="1"/>
-      <c r="AN13" s="1"/>
+      <c r="AM13" s="4"/>
+      <c r="AN13" s="4"/>
       <c r="AO13" s="1"/>
       <c r="AP13" s="1"/>
       <c r="AQ13" s="1"/>
@@ -2886,49 +2896,49 @@
       <c r="A14" s="1">
         <v>10</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
-      <c r="AC14" s="1"/>
-      <c r="AD14" s="1"/>
-      <c r="AE14" s="1"/>
-      <c r="AF14" s="1"/>
-      <c r="AG14" s="1"/>
-      <c r="AH14" s="1"/>
-      <c r="AI14" s="1"/>
-      <c r="AJ14" s="1"/>
-      <c r="AK14" s="1"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="4"/>
       <c r="AL14" s="1" t="s">
         <v>78</v>
       </c>
       <c r="AM14" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="AN14" s="1"/>
+      <c r="AN14" s="4"/>
       <c r="AO14" s="1"/>
       <c r="AP14" s="1"/>
       <c r="AQ14" s="1"/>
@@ -2957,44 +2967,44 @@
       <c r="A15" s="1">
         <v>11</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
-      <c r="AD15" s="1"/>
-      <c r="AE15" s="1"/>
-      <c r="AF15" s="1"/>
-      <c r="AG15" s="1"/>
-      <c r="AH15" s="1"/>
-      <c r="AI15" s="1"/>
-      <c r="AJ15" s="1"/>
-      <c r="AK15" s="1"/>
-      <c r="AL15" s="1"/>
-      <c r="AM15" s="1"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="4"/>
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="4"/>
+      <c r="AL15" s="4"/>
+      <c r="AM15" s="4"/>
       <c r="AN15" s="1" t="s">
         <v>0</v>
       </c>
@@ -3026,47 +3036,47 @@
       <c r="A16" s="1">
         <v>12</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
-      <c r="AD16" s="1"/>
-      <c r="AE16" s="1"/>
-      <c r="AF16" s="1"/>
-      <c r="AG16" s="1"/>
-      <c r="AH16" s="1"/>
-      <c r="AI16" s="1"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="4"/>
       <c r="AJ16" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="AK16" s="1"/>
-      <c r="AL16" s="1"/>
-      <c r="AM16" s="1"/>
-      <c r="AN16" s="1"/>
+      <c r="AK16" s="4"/>
+      <c r="AL16" s="4"/>
+      <c r="AM16" s="4"/>
+      <c r="AN16" s="4"/>
       <c r="AO16" s="1"/>
       <c r="AP16" s="1"/>
       <c r="AQ16" s="1"/>
@@ -3095,49 +3105,49 @@
       <c r="A17" s="1">
         <v>13</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
       <c r="D17" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
-      <c r="AE17" s="1"/>
-      <c r="AF17" s="1"/>
-      <c r="AG17" s="1"/>
-      <c r="AH17" s="1"/>
-      <c r="AI17" s="1"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="4"/>
       <c r="AJ17" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AK17" s="1"/>
-      <c r="AL17" s="1"/>
-      <c r="AM17" s="1"/>
-      <c r="AN17" s="1"/>
+      <c r="AK17" s="4"/>
+      <c r="AL17" s="4"/>
+      <c r="AM17" s="4"/>
+      <c r="AN17" s="4"/>
       <c r="AO17" s="1"/>
       <c r="AP17" s="1"/>
       <c r="AQ17" s="1"/>
@@ -3166,53 +3176,53 @@
       <c r="A18" s="1">
         <v>14</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
       <c r="D18" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
-      <c r="AA18" s="1"/>
-      <c r="AB18" s="1"/>
-      <c r="AC18" s="1"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
       <c r="AD18" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AE18" s="1"/>
-      <c r="AF18" s="1"/>
-      <c r="AG18" s="1"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
       <c r="AH18" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AI18" s="1"/>
+      <c r="AI18" s="4"/>
       <c r="AJ18" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AK18" s="1"/>
-      <c r="AL18" s="1"/>
-      <c r="AM18" s="1"/>
-      <c r="AN18" s="1"/>
+      <c r="AK18" s="4"/>
+      <c r="AL18" s="4"/>
+      <c r="AM18" s="4"/>
+      <c r="AN18" s="4"/>
       <c r="AO18" s="1"/>
       <c r="AP18" s="1"/>
       <c r="AQ18" s="1"/>
@@ -3241,53 +3251,53 @@
       <c r="A19" s="1">
         <v>15</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
       <c r="D19" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="4"/>
       <c r="AD19" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AE19" s="1"/>
-      <c r="AF19" s="1"/>
-      <c r="AG19" s="1"/>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="4"/>
+      <c r="AG19" s="4"/>
       <c r="AH19" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AI19" s="1"/>
+      <c r="AI19" s="4"/>
       <c r="AJ19" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AK19" s="1"/>
-      <c r="AL19" s="1"/>
-      <c r="AM19" s="1"/>
-      <c r="AN19" s="1"/>
+      <c r="AK19" s="4"/>
+      <c r="AL19" s="4"/>
+      <c r="AM19" s="4"/>
+      <c r="AN19" s="4"/>
       <c r="AO19" s="1"/>
       <c r="AP19" s="1"/>
       <c r="AQ19" s="1"/>
@@ -3316,53 +3326,53 @@
       <c r="A20" s="1">
         <v>16</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
       <c r="D20" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="1"/>
-      <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4"/>
       <c r="AD20" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AE20" s="1"/>
-      <c r="AF20" s="1"/>
-      <c r="AG20" s="1"/>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="4"/>
       <c r="AH20" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AI20" s="1"/>
+      <c r="AI20" s="4"/>
       <c r="AJ20" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AK20" s="1"/>
-      <c r="AL20" s="1"/>
-      <c r="AM20" s="1"/>
-      <c r="AN20" s="1"/>
+      <c r="AK20" s="4"/>
+      <c r="AL20" s="4"/>
+      <c r="AM20" s="4"/>
+      <c r="AN20" s="4"/>
       <c r="AO20" s="1"/>
       <c r="AP20" s="1"/>
       <c r="AQ20" s="1"/>
@@ -3391,53 +3401,53 @@
       <c r="A21" s="1">
         <v>17</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
       <c r="D21" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
-      <c r="AA21" s="1"/>
-      <c r="AB21" s="1"/>
-      <c r="AC21" s="1"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
       <c r="AD21" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AE21" s="1"/>
-      <c r="AF21" s="1"/>
-      <c r="AG21" s="1"/>
+      <c r="AE21" s="4"/>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="4"/>
       <c r="AH21" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AI21" s="1"/>
+      <c r="AI21" s="4"/>
       <c r="AJ21" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AK21" s="1"/>
-      <c r="AL21" s="1"/>
-      <c r="AM21" s="1"/>
-      <c r="AN21" s="1"/>
+      <c r="AK21" s="4"/>
+      <c r="AL21" s="4"/>
+      <c r="AM21" s="4"/>
+      <c r="AN21" s="4"/>
       <c r="AO21" s="1"/>
       <c r="AP21" s="1"/>
       <c r="AQ21" s="1"/>
@@ -3466,53 +3476,53 @@
       <c r="A22" s="1">
         <v>18</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
       <c r="D22" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
-      <c r="AA22" s="1"/>
-      <c r="AB22" s="1"/>
-      <c r="AC22" s="1"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
       <c r="AD22" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AE22" s="1"/>
-      <c r="AF22" s="1"/>
-      <c r="AG22" s="1"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4"/>
       <c r="AH22" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AI22" s="1"/>
+      <c r="AI22" s="4"/>
       <c r="AJ22" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AK22" s="1"/>
-      <c r="AL22" s="1"/>
-      <c r="AM22" s="1"/>
-      <c r="AN22" s="1"/>
+      <c r="AK22" s="4"/>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="4"/>
+      <c r="AN22" s="4"/>
       <c r="AO22" s="1"/>
       <c r="AP22" s="1"/>
       <c r="AQ22" s="1"/>
@@ -10140,127 +10150,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="2" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="2" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="2" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="2" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="2" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="2" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="2" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="2" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="2" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="2" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="2" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="2" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="2" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="2" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="2" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="2" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="2" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="2" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="2" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="2" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="2" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="2" t="s">
         <v>167</v>
       </c>
     </row>
@@ -10275,571 +10285,571 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3551D49-187C-4829-9BA5-46F59B673A80}">
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="6">
+      <c r="A1" s="3">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="6">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="6">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="6">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="6">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="6">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="6">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="6">
+      <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="6">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="6">
+      <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="6">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="6">
+      <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="6">
+      <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="6">
+      <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="6">
+      <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="6">
+      <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="6">
+      <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="6">
+      <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="6">
+      <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="6">
+      <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="6">
+      <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="6">
+      <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="6">
+      <c r="A43" s="3">
         <v>42</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="6">
+      <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="6">
+      <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="6">
+      <c r="A46" s="3">
         <v>45</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="6">
+      <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="6">
+      <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="6">
+      <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="6">
+      <c r="A50" s="3">
         <v>49</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="6">
+      <c r="A51" s="3">
         <v>50</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="6">
+      <c r="A52" s="3">
         <v>51</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="6">
+      <c r="A53" s="3">
         <v>52</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="6">
+      <c r="A54" s="3">
         <v>53</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="6">
+      <c r="A55" s="3">
         <v>54</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="6">
+      <c r="A56" s="3">
         <v>55</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="56">
@@ -10848,11 +10858,6 @@
     <mergeCell ref="B54:D54"/>
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
     <mergeCell ref="B51:D51"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="B41:D41"/>
@@ -10860,11 +10865,11 @@
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:D29"/>
@@ -10872,11 +10877,11 @@
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B17:D17"/>
@@ -10884,11 +10889,11 @@
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
@@ -10899,6 +10904,11 @@
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/final_method/分析表.xlsx
+++ b/final_method/分析表.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\user\source\repos\Compiler\final_method\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BACEF2-A059-482C-AE16-53441C0771C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB36B6B6-1016-41D1-B790-A34ABA5BF3EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{85660D98-9A17-4E4E-93F8-C6FB2685D6EB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{85660D98-9A17-4E4E-93F8-C6FB2685D6EB}"/>
   </bookViews>
   <sheets>
     <sheet name="LALR(1)分析表" sheetId="4" r:id="rId1"/>
-    <sheet name="非终结符说明" sheetId="5" r:id="rId2"/>
-    <sheet name="语法规则编号" sheetId="6" r:id="rId3"/>
+    <sheet name="Decide" sheetId="7" r:id="rId2"/>
+    <sheet name="非终结符说明" sheetId="5" r:id="rId3"/>
+    <sheet name="语法规则编号" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LALR(1)分析表'!$A$3:$BK$100</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="260">
   <si>
     <t>acc</t>
   </si>
@@ -1345,12 +1346,27 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>d1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r33/r13/r22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d2</t>
+  </si>
+  <si>
+    <t>r22/r13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1501,7 +1517,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1533,6 +1549,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1852,13 +1871,13 @@
   <sheetPr codeName="工作表2"/>
   <dimension ref="A2:BM101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L46" sqref="L46"/>
+    <sheetView tabSelected="1" topLeftCell="E73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AG67" sqref="AG67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <sheetData>
-    <row r="2" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:65">
       <c r="B2" s="6" t="s">
         <v>111</v>
       </c>
@@ -1927,7 +1946,7 @@
       <c r="BK2" s="7"/>
       <c r="BL2" s="7"/>
     </row>
-    <row r="3" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:65">
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
@@ -2118,7 +2137,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:65">
       <c r="A4" s="4">
         <v>0</v>
       </c>
@@ -2189,7 +2208,7 @@
       <c r="BL4" s="4"/>
       <c r="BM4" s="5"/>
     </row>
-    <row r="5" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:65">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -2260,7 +2279,7 @@
       <c r="BL5" s="4"/>
       <c r="BM5" s="5"/>
     </row>
-    <row r="6" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:65">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -2331,7 +2350,7 @@
       <c r="BL6" s="4"/>
       <c r="BM6" s="5"/>
     </row>
-    <row r="7" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:65">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -2406,7 +2425,7 @@
       <c r="BL7" s="4"/>
       <c r="BM7" s="5"/>
     </row>
-    <row r="8" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:65">
       <c r="A8" s="4">
         <v>4</v>
       </c>
@@ -2479,7 +2498,7 @@
       <c r="BL8" s="4"/>
       <c r="BM8" s="5"/>
     </row>
-    <row r="9" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:65">
       <c r="A9" s="4">
         <v>5</v>
       </c>
@@ -2554,7 +2573,7 @@
       </c>
       <c r="BM9" s="5"/>
     </row>
-    <row r="10" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:65">
       <c r="A10" s="4">
         <v>6</v>
       </c>
@@ -2625,7 +2644,7 @@
       <c r="BL10" s="4"/>
       <c r="BM10" s="5"/>
     </row>
-    <row r="11" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:65">
       <c r="A11" s="4">
         <v>7</v>
       </c>
@@ -2722,7 +2741,7 @@
       <c r="BL11" s="4"/>
       <c r="BM11" s="5"/>
     </row>
-    <row r="12" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:65">
       <c r="A12" s="4">
         <v>8</v>
       </c>
@@ -2793,7 +2812,7 @@
       <c r="BL12" s="4"/>
       <c r="BM12" s="5"/>
     </row>
-    <row r="13" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:65">
       <c r="A13" s="4">
         <v>9</v>
       </c>
@@ -2864,7 +2883,7 @@
       <c r="BL13" s="4"/>
       <c r="BM13" s="5"/>
     </row>
-    <row r="14" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:65">
       <c r="A14" s="4">
         <v>10</v>
       </c>
@@ -2937,7 +2956,7 @@
       <c r="BL14" s="4"/>
       <c r="BM14" s="5"/>
     </row>
-    <row r="15" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:65">
       <c r="A15" s="4">
         <v>11</v>
       </c>
@@ -3008,7 +3027,7 @@
       <c r="BL15" s="4"/>
       <c r="BM15" s="5"/>
     </row>
-    <row r="16" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:65">
       <c r="A16" s="4">
         <v>12</v>
       </c>
@@ -3081,7 +3100,7 @@
       <c r="BL16" s="4"/>
       <c r="BM16" s="5"/>
     </row>
-    <row r="17" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:65">
       <c r="A17" s="4">
         <v>13</v>
       </c>
@@ -3174,7 +3193,7 @@
       <c r="BL17" s="4"/>
       <c r="BM17" s="5"/>
     </row>
-    <row r="18" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:65">
       <c r="A18" s="4">
         <v>14</v>
       </c>
@@ -3247,7 +3266,7 @@
       <c r="BL18" s="4"/>
       <c r="BM18" s="5"/>
     </row>
-    <row r="19" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:65">
       <c r="A19" s="4">
         <v>15</v>
       </c>
@@ -3324,7 +3343,7 @@
       <c r="BL19" s="4"/>
       <c r="BM19" s="5"/>
     </row>
-    <row r="20" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:65">
       <c r="A20" s="4">
         <v>16</v>
       </c>
@@ -3401,7 +3420,7 @@
       <c r="BL20" s="4"/>
       <c r="BM20" s="5"/>
     </row>
-    <row r="21" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:65">
       <c r="A21" s="4">
         <v>17</v>
       </c>
@@ -3494,7 +3513,7 @@
       <c r="BL21" s="4"/>
       <c r="BM21" s="5"/>
     </row>
-    <row r="22" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:65">
       <c r="A22" s="4">
         <v>18</v>
       </c>
@@ -3587,7 +3606,7 @@
       <c r="BL22" s="4"/>
       <c r="BM22" s="5"/>
     </row>
-    <row r="23" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:65">
       <c r="A23" s="4">
         <v>19</v>
       </c>
@@ -3680,7 +3699,7 @@
       <c r="BL23" s="4"/>
       <c r="BM23" s="5"/>
     </row>
-    <row r="24" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:65">
       <c r="A24" s="4">
         <v>20</v>
       </c>
@@ -3773,7 +3792,7 @@
       <c r="BL24" s="4"/>
       <c r="BM24" s="5"/>
     </row>
-    <row r="25" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:65">
       <c r="A25" s="4">
         <v>21</v>
       </c>
@@ -3844,7 +3863,7 @@
       <c r="BL25" s="4"/>
       <c r="BM25" s="5"/>
     </row>
-    <row r="26" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:65">
       <c r="A26" s="4">
         <v>22</v>
       </c>
@@ -3941,7 +3960,7 @@
       <c r="BL26" s="4"/>
       <c r="BM26" s="5"/>
     </row>
-    <row r="27" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:65">
       <c r="A27" s="4">
         <v>23</v>
       </c>
@@ -4014,7 +4033,7 @@
       <c r="BL27" s="4"/>
       <c r="BM27" s="5"/>
     </row>
-    <row r="28" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:65">
       <c r="A28" s="4">
         <v>24</v>
       </c>
@@ -4085,7 +4104,7 @@
       <c r="BL28" s="4"/>
       <c r="BM28" s="5"/>
     </row>
-    <row r="29" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:65">
       <c r="A29" s="4">
         <v>25</v>
       </c>
@@ -4162,7 +4181,7 @@
       </c>
       <c r="BM29" s="5"/>
     </row>
-    <row r="30" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:65">
       <c r="A30" s="4">
         <v>26</v>
       </c>
@@ -4235,7 +4254,7 @@
       </c>
       <c r="BM30" s="5"/>
     </row>
-    <row r="31" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:65">
       <c r="A31" s="4">
         <v>27</v>
       </c>
@@ -4310,7 +4329,7 @@
       <c r="BL31" s="4"/>
       <c r="BM31" s="5"/>
     </row>
-    <row r="32" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:65">
       <c r="A32" s="4">
         <v>28</v>
       </c>
@@ -4389,7 +4408,7 @@
       <c r="BL32" s="4"/>
       <c r="BM32" s="5"/>
     </row>
-    <row r="33" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:65">
       <c r="A33" s="4">
         <v>29</v>
       </c>
@@ -4468,7 +4487,7 @@
       <c r="BL33" s="4"/>
       <c r="BM33" s="5"/>
     </row>
-    <row r="34" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:65">
       <c r="A34" s="4">
         <v>30</v>
       </c>
@@ -4541,7 +4560,7 @@
       <c r="BL34" s="4"/>
       <c r="BM34" s="5"/>
     </row>
-    <row r="35" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:65">
       <c r="A35" s="4">
         <v>31</v>
       </c>
@@ -4618,7 +4637,7 @@
       <c r="BL35" s="4"/>
       <c r="BM35" s="5"/>
     </row>
-    <row r="36" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:65">
       <c r="A36" s="4">
         <v>32</v>
       </c>
@@ -4695,7 +4714,7 @@
       <c r="BL36" s="4"/>
       <c r="BM36" s="5"/>
     </row>
-    <row r="37" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:65">
       <c r="A37" s="4">
         <v>33</v>
       </c>
@@ -4772,7 +4791,7 @@
       <c r="BL37" s="4"/>
       <c r="BM37" s="5"/>
     </row>
-    <row r="38" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:65">
       <c r="A38" s="4">
         <v>34</v>
       </c>
@@ -4843,7 +4862,7 @@
       <c r="BL38" s="4"/>
       <c r="BM38" s="5"/>
     </row>
-    <row r="39" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:65">
       <c r="A39" s="4">
         <v>35</v>
       </c>
@@ -4946,7 +4965,7 @@
       <c r="BL39" s="4"/>
       <c r="BM39" s="5"/>
     </row>
-    <row r="40" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:65">
       <c r="A40" s="4">
         <v>36</v>
       </c>
@@ -5019,7 +5038,7 @@
       <c r="BL40" s="4"/>
       <c r="BM40" s="5"/>
     </row>
-    <row r="41" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:65">
       <c r="A41" s="4">
         <v>37</v>
       </c>
@@ -5106,7 +5125,7 @@
       <c r="BL41" s="4"/>
       <c r="BM41" s="5"/>
     </row>
-    <row r="42" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:65">
       <c r="A42" s="4">
         <v>38</v>
       </c>
@@ -5193,7 +5212,7 @@
       <c r="BL42" s="4"/>
       <c r="BM42" s="5"/>
     </row>
-    <row r="43" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:65">
       <c r="A43" s="4">
         <v>39</v>
       </c>
@@ -5280,7 +5299,7 @@
       <c r="BL43" s="4"/>
       <c r="BM43" s="5"/>
     </row>
-    <row r="44" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:65">
       <c r="A44" s="4">
         <v>40</v>
       </c>
@@ -5373,7 +5392,7 @@
       <c r="BL44" s="4"/>
       <c r="BM44" s="5"/>
     </row>
-    <row r="45" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:65">
       <c r="A45" s="4">
         <v>41</v>
       </c>
@@ -5460,7 +5479,7 @@
       <c r="BL45" s="4"/>
       <c r="BM45" s="5"/>
     </row>
-    <row r="46" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:65">
       <c r="A46" s="4">
         <v>42</v>
       </c>
@@ -5569,7 +5588,7 @@
       <c r="BL46" s="4"/>
       <c r="BM46" s="5"/>
     </row>
-    <row r="47" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:65">
       <c r="A47" s="4">
         <v>43</v>
       </c>
@@ -5666,7 +5685,7 @@
       <c r="BL47" s="4"/>
       <c r="BM47" s="5"/>
     </row>
-    <row r="48" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:65">
       <c r="A48" s="4">
         <v>44</v>
       </c>
@@ -5753,7 +5772,7 @@
       <c r="BL48" s="4"/>
       <c r="BM48" s="5"/>
     </row>
-    <row r="49" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:65">
       <c r="A49" s="4">
         <v>45</v>
       </c>
@@ -5860,7 +5879,7 @@
       <c r="BL49" s="4"/>
       <c r="BM49" s="5"/>
     </row>
-    <row r="50" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:65">
       <c r="A50" s="4">
         <v>46</v>
       </c>
@@ -5967,7 +5986,7 @@
       <c r="BL50" s="4"/>
       <c r="BM50" s="5"/>
     </row>
-    <row r="51" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:65">
       <c r="A51" s="4">
         <v>47</v>
       </c>
@@ -6074,7 +6093,7 @@
       <c r="BL51" s="4"/>
       <c r="BM51" s="5"/>
     </row>
-    <row r="52" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:65">
       <c r="A52" s="4">
         <v>48</v>
       </c>
@@ -6155,7 +6174,7 @@
       <c r="BL52" s="4"/>
       <c r="BM52" s="5"/>
     </row>
-    <row r="53" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:65">
       <c r="A53" s="4">
         <v>49</v>
       </c>
@@ -6262,7 +6281,7 @@
       <c r="BL53" s="4"/>
       <c r="BM53" s="5"/>
     </row>
-    <row r="54" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:65">
       <c r="A54" s="4">
         <v>50</v>
       </c>
@@ -6333,7 +6352,7 @@
       <c r="BL54" s="4"/>
       <c r="BM54" s="5"/>
     </row>
-    <row r="55" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:65">
       <c r="A55" s="4">
         <v>51</v>
       </c>
@@ -6404,7 +6423,7 @@
       <c r="BL55" s="4"/>
       <c r="BM55" s="5"/>
     </row>
-    <row r="56" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:65">
       <c r="A56" s="4">
         <v>52</v>
       </c>
@@ -6475,7 +6494,7 @@
       <c r="BL56" s="4"/>
       <c r="BM56" s="5"/>
     </row>
-    <row r="57" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:65">
       <c r="A57" s="4">
         <v>53</v>
       </c>
@@ -6546,7 +6565,7 @@
       <c r="BL57" s="4"/>
       <c r="BM57" s="5"/>
     </row>
-    <row r="58" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:65">
       <c r="A58" s="4">
         <v>54</v>
       </c>
@@ -6617,7 +6636,7 @@
       <c r="BL58" s="4"/>
       <c r="BM58" s="5"/>
     </row>
-    <row r="59" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:65">
       <c r="A59" s="4">
         <v>55</v>
       </c>
@@ -6688,7 +6707,7 @@
       <c r="BL59" s="4"/>
       <c r="BM59" s="5"/>
     </row>
-    <row r="60" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:65">
       <c r="A60" s="4">
         <v>56</v>
       </c>
@@ -6767,7 +6786,7 @@
       <c r="BL60" s="4"/>
       <c r="BM60" s="5"/>
     </row>
-    <row r="61" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:65">
       <c r="A61" s="4">
         <v>57</v>
       </c>
@@ -6864,7 +6883,7 @@
       <c r="BL61" s="4"/>
       <c r="BM61" s="5"/>
     </row>
-    <row r="62" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:65">
       <c r="A62" s="4">
         <v>58</v>
       </c>
@@ -6943,7 +6962,7 @@
       <c r="BL62" s="4"/>
       <c r="BM62" s="5"/>
     </row>
-    <row r="63" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:65">
       <c r="A63" s="4">
         <v>59</v>
       </c>
@@ -7040,7 +7059,7 @@
       <c r="BL63" s="4"/>
       <c r="BM63" s="5"/>
     </row>
-    <row r="64" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:65">
       <c r="A64" s="4">
         <v>60</v>
       </c>
@@ -7121,7 +7140,7 @@
       <c r="BL64" s="4"/>
       <c r="BM64" s="5"/>
     </row>
-    <row r="65" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:65">
       <c r="A65" s="4">
         <v>61</v>
       </c>
@@ -7200,7 +7219,7 @@
       <c r="BL65" s="4"/>
       <c r="BM65" s="5"/>
     </row>
-    <row r="66" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:65">
       <c r="A66" s="4">
         <v>62</v>
       </c>
@@ -7279,7 +7298,7 @@
       <c r="BL66" s="4"/>
       <c r="BM66" s="5"/>
     </row>
-    <row r="67" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:65">
       <c r="A67" s="4">
         <v>63</v>
       </c>
@@ -7384,7 +7403,7 @@
       <c r="BL67" s="4"/>
       <c r="BM67" s="5"/>
     </row>
-    <row r="68" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:65">
       <c r="A68" s="4">
         <v>64</v>
       </c>
@@ -7463,7 +7482,7 @@
       <c r="BL68" s="4"/>
       <c r="BM68" s="5"/>
     </row>
-    <row r="69" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:65">
       <c r="A69" s="4">
         <v>65</v>
       </c>
@@ -7558,7 +7577,7 @@
       <c r="BL69" s="4"/>
       <c r="BM69" s="5"/>
     </row>
-    <row r="70" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:65">
       <c r="A70" s="4">
         <v>66</v>
       </c>
@@ -7651,7 +7670,7 @@
       <c r="BL70" s="4"/>
       <c r="BM70" s="5"/>
     </row>
-    <row r="71" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:65">
       <c r="A71" s="4">
         <v>67</v>
       </c>
@@ -7738,7 +7757,7 @@
       <c r="BL71" s="4"/>
       <c r="BM71" s="5"/>
     </row>
-    <row r="72" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:65">
       <c r="A72" s="4">
         <v>68</v>
       </c>
@@ -7809,7 +7828,7 @@
       <c r="BL72" s="4"/>
       <c r="BM72" s="5"/>
     </row>
-    <row r="73" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:65">
       <c r="A73" s="4">
         <v>69</v>
       </c>
@@ -7886,7 +7905,7 @@
       <c r="BL73" s="4"/>
       <c r="BM73" s="5"/>
     </row>
-    <row r="74" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:65">
       <c r="A74" s="4">
         <v>70</v>
       </c>
@@ -7963,7 +7982,7 @@
       <c r="BL74" s="4"/>
       <c r="BM74" s="5"/>
     </row>
-    <row r="75" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:65">
       <c r="A75" s="4">
         <v>71</v>
       </c>
@@ -8040,7 +8059,7 @@
       <c r="BL75" s="4"/>
       <c r="BM75" s="5"/>
     </row>
-    <row r="76" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:65">
       <c r="A76" s="4">
         <v>72</v>
       </c>
@@ -8117,7 +8136,7 @@
       <c r="BL76" s="4"/>
       <c r="BM76" s="5"/>
     </row>
-    <row r="77" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:65">
       <c r="A77" s="4">
         <v>73</v>
       </c>
@@ -8194,7 +8213,7 @@
       <c r="BL77" s="4"/>
       <c r="BM77" s="5"/>
     </row>
-    <row r="78" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:65">
       <c r="A78" s="4">
         <v>74</v>
       </c>
@@ -8271,7 +8290,7 @@
       <c r="BL78" s="4"/>
       <c r="BM78" s="5"/>
     </row>
-    <row r="79" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:65">
       <c r="A79" s="4">
         <v>75</v>
       </c>
@@ -8344,7 +8363,7 @@
       <c r="BL79" s="4"/>
       <c r="BM79" s="5"/>
     </row>
-    <row r="80" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:65">
       <c r="A80" s="4">
         <v>76</v>
       </c>
@@ -8433,7 +8452,7 @@
       <c r="BL80" s="4"/>
       <c r="BM80" s="5"/>
     </row>
-    <row r="81" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:65">
       <c r="A81" s="4">
         <v>77</v>
       </c>
@@ -8518,7 +8537,7 @@
       <c r="BL81" s="4"/>
       <c r="BM81" s="5"/>
     </row>
-    <row r="82" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:65">
       <c r="A82" s="4">
         <v>78</v>
       </c>
@@ -8601,7 +8620,7 @@
       <c r="BL82" s="4"/>
       <c r="BM82" s="5"/>
     </row>
-    <row r="83" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:65">
       <c r="A83" s="4">
         <v>79</v>
       </c>
@@ -8684,7 +8703,7 @@
       <c r="BL83" s="4"/>
       <c r="BM83" s="5"/>
     </row>
-    <row r="84" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:65">
       <c r="A84" s="4">
         <v>80</v>
       </c>
@@ -8765,7 +8784,7 @@
       <c r="BL84" s="4"/>
       <c r="BM84" s="5"/>
     </row>
-    <row r="85" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:65">
       <c r="A85" s="4">
         <v>81</v>
       </c>
@@ -8846,7 +8865,7 @@
       <c r="BL85" s="4"/>
       <c r="BM85" s="5"/>
     </row>
-    <row r="86" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:65">
       <c r="A86" s="4">
         <v>82</v>
       </c>
@@ -8953,7 +8972,7 @@
       <c r="BL86" s="4"/>
       <c r="BM86" s="5"/>
     </row>
-    <row r="87" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:65">
       <c r="A87" s="4">
         <v>83</v>
       </c>
@@ -9060,7 +9079,7 @@
       <c r="BL87" s="4"/>
       <c r="BM87" s="5"/>
     </row>
-    <row r="88" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:65">
       <c r="A88" s="4">
         <v>84</v>
       </c>
@@ -9145,7 +9164,7 @@
       <c r="BL88" s="4"/>
       <c r="BM88" s="5"/>
     </row>
-    <row r="89" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:65">
       <c r="A89" s="4">
         <v>85</v>
       </c>
@@ -9224,7 +9243,7 @@
       <c r="BL89" s="4"/>
       <c r="BM89" s="5"/>
     </row>
-    <row r="90" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:65">
       <c r="A90" s="4">
         <v>86</v>
       </c>
@@ -9303,7 +9322,7 @@
       <c r="BL90" s="4"/>
       <c r="BM90" s="5"/>
     </row>
-    <row r="91" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:65">
       <c r="A91" s="4">
         <v>87</v>
       </c>
@@ -9390,7 +9409,7 @@
       <c r="BL91" s="4"/>
       <c r="BM91" s="5"/>
     </row>
-    <row r="92" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:65">
       <c r="A92" s="4">
         <v>88</v>
       </c>
@@ -9477,7 +9496,7 @@
       <c r="BL92" s="4"/>
       <c r="BM92" s="5"/>
     </row>
-    <row r="93" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:65">
       <c r="A93" s="4">
         <v>89</v>
       </c>
@@ -9564,7 +9583,7 @@
       <c r="BL93" s="4"/>
       <c r="BM93" s="5"/>
     </row>
-    <row r="94" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:65">
       <c r="A94" s="4">
         <v>90</v>
       </c>
@@ -9651,7 +9670,7 @@
       <c r="BL94" s="4"/>
       <c r="BM94" s="5"/>
     </row>
-    <row r="95" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:65">
       <c r="A95" s="4">
         <v>91</v>
       </c>
@@ -9758,7 +9777,7 @@
       <c r="BL95" s="4"/>
       <c r="BM95" s="5"/>
     </row>
-    <row r="96" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:65">
       <c r="A96" s="4">
         <v>92</v>
       </c>
@@ -9849,7 +9868,7 @@
       <c r="BL96" s="4"/>
       <c r="BM96" s="5"/>
     </row>
-    <row r="97" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:65">
       <c r="A97" s="4">
         <v>93</v>
       </c>
@@ -9956,7 +9975,7 @@
       <c r="BL97" s="4"/>
       <c r="BM97" s="5"/>
     </row>
-    <row r="98" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:65">
       <c r="A98" s="4">
         <v>94</v>
       </c>
@@ -10063,7 +10082,7 @@
       <c r="BL98" s="4"/>
       <c r="BM98" s="5"/>
     </row>
-    <row r="99" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:65">
       <c r="A99" s="4">
         <v>95</v>
       </c>
@@ -10170,7 +10189,7 @@
       <c r="BL99" s="4"/>
       <c r="BM99" s="5"/>
     </row>
-    <row r="100" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:65">
       <c r="A100" s="4">
         <v>96</v>
       </c>
@@ -10277,7 +10296,7 @@
       <c r="BL100" s="4"/>
       <c r="BM100" s="5"/>
     </row>
-    <row r="101" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:65">
       <c r="A101" s="4">
         <v>97</v>
       </c>
@@ -10364,144 +10383,181 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A8246CB-5D3A-40C6-9689-10A533CB822C}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C2" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{974DB324-053D-4CBB-BDC5-65D49E568C61}">
   <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="24.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1">
       <c r="A18" s="2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1">
       <c r="A19" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1">
       <c r="A20" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1">
       <c r="A21" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1">
       <c r="A22" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1">
       <c r="A23" s="2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1">
       <c r="A24" s="2" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1">
       <c r="A25" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1">
       <c r="A26" s="2" t="s">
         <v>236</v>
       </c>
@@ -10513,17 +10569,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3551D49-187C-4829-9BA5-46F59B673A80}">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="3">
         <v>0</v>
       </c>
@@ -10533,7 +10589,7 @@
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -10543,7 +10599,7 @@
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -10553,7 +10609,7 @@
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -10563,7 +10619,7 @@
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -10573,7 +10629,7 @@
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -10583,7 +10639,7 @@
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -10593,7 +10649,7 @@
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -10603,7 +10659,7 @@
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -10613,7 +10669,7 @@
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -10623,7 +10679,7 @@
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -10633,7 +10689,7 @@
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -10643,7 +10699,7 @@
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -10653,7 +10709,7 @@
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -10663,7 +10719,7 @@
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -10673,7 +10729,7 @@
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -10683,7 +10739,7 @@
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -10693,7 +10749,7 @@
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -10703,7 +10759,7 @@
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -10713,7 +10769,7 @@
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -10723,7 +10779,7 @@
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -10733,7 +10789,7 @@
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -10743,7 +10799,7 @@
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -10753,7 +10809,7 @@
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -10763,7 +10819,7 @@
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -10773,7 +10829,7 @@
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -10783,7 +10839,7 @@
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -10793,7 +10849,7 @@
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -10803,7 +10859,7 @@
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -10813,7 +10869,7 @@
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -10823,7 +10879,7 @@
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -10833,7 +10889,7 @@
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -10843,7 +10899,7 @@
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -10853,7 +10909,7 @@
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -10863,7 +10919,7 @@
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -10873,7 +10929,7 @@
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -10883,7 +10939,7 @@
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -10893,7 +10949,7 @@
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -10903,7 +10959,7 @@
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -10913,7 +10969,7 @@
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -10923,7 +10979,7 @@
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -10933,7 +10989,7 @@
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -10943,7 +10999,7 @@
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -10953,7 +11009,7 @@
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -10963,7 +11019,7 @@
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -10973,7 +11029,7 @@
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -10983,7 +11039,7 @@
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -10993,7 +11049,7 @@
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -11003,7 +11059,7 @@
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -11013,7 +11069,7 @@
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -11023,7 +11079,7 @@
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -11033,7 +11089,7 @@
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -11043,7 +11099,7 @@
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -11053,7 +11109,7 @@
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -11063,7 +11119,7 @@
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -11073,7 +11129,7 @@
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -11083,7 +11139,7 @@
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -11095,6 +11151,47 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="B57:D57"/>
@@ -11111,47 +11208,6 @@
     <mergeCell ref="B49:D49"/>
     <mergeCell ref="B50:D50"/>
     <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
